--- a/xml-generator/WS800.01.2017S.SD.xlsx
+++ b/xml-generator/WS800.01.2017S.SD.xlsx
@@ -111,58 +111,10 @@
     <t>Name</t>
   </si>
   <si>
-    <t>/Users/milesexner/Desktop/Moodle-Course/ws800-01/sections/section_100723/section.xml</t>
-  </si>
-  <si>
-    <t>/Users/milesexner/Desktop/Moodle-Course/ws800-01/sections/section_101178/section.xml</t>
-  </si>
-  <si>
-    <t>/Users/milesexner/Desktop/Moodle-Course/ws800-01/sections/section_101179/section.xml</t>
-  </si>
-  <si>
-    <t>/Users/milesexner/Desktop/Moodle-Course/ws800-01/sections/section_101188/section.xml</t>
-  </si>
-  <si>
-    <t>/Users/milesexner/Desktop/Moodle-Course/ws800-01/sections/section_101182/section.xml</t>
-  </si>
-  <si>
-    <t>/Users/milesexner/Desktop/Moodle-Course/ws800-01/sections/section_101183/section.xml</t>
-  </si>
-  <si>
-    <t>/Users/milesexner/Desktop/Moodle-Course/ws800-01/sections/section_101184/section.xml</t>
-  </si>
-  <si>
-    <t>/Users/milesexner/Desktop/Moodle-Course/ws800-01/sections/section_101185/section.xml</t>
-  </si>
-  <si>
-    <t>/Users/milesexner/Desktop/Moodle-Course/ws800-01/sections/section_101181/section.xml</t>
-  </si>
-  <si>
-    <t>/Users/milesexner/Desktop/Moodle-Course/ws800-01/sections/section_101186/section.xml</t>
-  </si>
-  <si>
-    <t>/Users/milesexner/Desktop/Moodle-Course/ws800-01/sections/section_101189/section.xml</t>
-  </si>
-  <si>
-    <t>/Users/milesexner/Desktop/Moodle-Course/ws800-01/sections/section_101187/section.xml</t>
-  </si>
-  <si>
-    <t>/Users/milesexner/Desktop/Moodle-Course/ws800-01/sections/section_101190/section.xml</t>
-  </si>
-  <si>
-    <t>/Users/milesexner/Desktop/Moodle-Course/ws800-01/sections/section_101191/section.xml</t>
-  </si>
-  <si>
-    <t>/Users/milesexner/Desktop/Moodle-Course/ws800-01/sections/section_101192/section.xml</t>
-  </si>
-  <si>
-    <t>/Users/milesexner/Desktop/Moodle-Course/ws800-01/sections/section_101193/section.xml</t>
+    <t>General Course Information</t>
   </si>
   <si>
     <t>Summary</t>
-  </si>
-  <si>
-    <t>General Course Information</t>
   </si>
   <si>
     <t>&lt;p style="box-sizing: inherit; margin: 0px 0px 1.6em; color: #565656; font-family: Georgia, 'Times New Roman', Times, serif; font-size: 18px; font-style: normal; font-variant-ligatures: normal; font-variant-caps: normal; font-weight: 300; letter-spacing: normal; orphans: 2; text-align: left; text-indent: 0px; text-transform: none; white-space: normal; widows: 2; word-spacing: 0px; -webkit-text-stroke-width: 0px; background-color: #ffffff;"&gt;&lt;strong style="box-sizing: inherit; font-weight: bold;"&gt;Course Description&lt;/strong&gt;&lt;/p&gt;
@@ -369,6 +321,57 @@
 &lt;p&gt;&lt;strong&gt;Due this week:&lt;/strong&gt; Case Study&lt;/p&gt;</t>
   </si>
   <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>/Users/milesexner/Desktop/Moodle-Course/ws800-01/sections/section_100723/section.xml</t>
+  </si>
+  <si>
+    <t>/Users/milesexner/Desktop/Moodle-Course/ws800-01/sections/section_101178/section.xml</t>
+  </si>
+  <si>
+    <t>/Users/milesexner/Desktop/Moodle-Course/ws800-01/sections/section_101179/section.xml</t>
+  </si>
+  <si>
+    <t>/Users/milesexner/Desktop/Moodle-Course/ws800-01/sections/section_101188/section.xml</t>
+  </si>
+  <si>
+    <t>/Users/milesexner/Desktop/Moodle-Course/ws800-01/sections/section_101182/section.xml</t>
+  </si>
+  <si>
+    <t>/Users/milesexner/Desktop/Moodle-Course/ws800-01/sections/section_101183/section.xml</t>
+  </si>
+  <si>
+    <t>/Users/milesexner/Desktop/Moodle-Course/ws800-01/sections/section_101184/section.xml</t>
+  </si>
+  <si>
+    <t>/Users/milesexner/Desktop/Moodle-Course/ws800-01/sections/section_101185/section.xml</t>
+  </si>
+  <si>
+    <t>/Users/milesexner/Desktop/Moodle-Course/ws800-01/sections/section_101181/section.xml</t>
+  </si>
+  <si>
+    <t>/Users/milesexner/Desktop/Moodle-Course/ws800-01/sections/section_101186/section.xml</t>
+  </si>
+  <si>
+    <t>/Users/milesexner/Desktop/Moodle-Course/ws800-01/sections/section_101189/section.xml</t>
+  </si>
+  <si>
+    <t>/Users/milesexner/Desktop/Moodle-Course/ws800-01/sections/section_101187/section.xml</t>
+  </si>
+  <si>
+    <t>/Users/milesexner/Desktop/Moodle-Course/ws800-01/sections/section_101190/section.xml</t>
+  </si>
+  <si>
+    <t>/Users/milesexner/Desktop/Moodle-Course/ws800-01/sections/section_101191/section.xml</t>
+  </si>
+  <si>
+    <t>/Users/milesexner/Desktop/Moodle-Course/ws800-01/sections/section_101192/section.xml</t>
+  </si>
+  <si>
+    <t>/Users/milesexner/Desktop/Moodle-Course/ws800-01/sections/section_101193/section.xml</t>
+  </si>
+  <si>
     <t>Module</t>
   </si>
   <si>
@@ -424,9 +427,6 @@
   </si>
   <si>
     <t>149179</t>
-  </si>
-  <si>
-    <t>Location</t>
   </si>
   <si>
     <t>/Users/milesexner/Desktop/Moodle-Course/ws800-01/activities/page_149172/page.xml</t>
@@ -2124,16 +2124,16 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E1" t="s">
         <v>171</v>
@@ -2142,16 +2142,16 @@
         <v>171</v>
       </c>
       <c r="G1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K1" t="s">
         <v>118</v>
@@ -2159,7 +2159,7 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B2" t="s">
         <v>223</v>
@@ -2194,7 +2194,7 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>79</v>
+        <v>44</v>
       </c>
       <c r="B3" t="s">
         <v>233</v>
@@ -2387,17 +2387,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>79</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:1">
@@ -2464,34 +2464,34 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E1" t="s">
         <v>171</v>
       </c>
       <c r="F1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K1" t="s">
         <v>118</v>
@@ -2499,7 +2499,7 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B2" t="s">
         <v>258</v>
@@ -2534,7 +2534,7 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>79</v>
+        <v>44</v>
       </c>
       <c r="B3" t="s">
         <v>268</v>
@@ -2721,17 +2721,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>79</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:1">
@@ -2798,13 +2798,13 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D1" t="s">
         <v>171</v>
@@ -2813,19 +2813,19 @@
         <v>171</v>
       </c>
       <c r="F1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K1" t="s">
         <v>118</v>
@@ -2833,7 +2833,7 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B2" t="s">
         <v>293</v>
@@ -2868,7 +2868,7 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>79</v>
+        <v>44</v>
       </c>
       <c r="B3" t="s">
         <v>303</v>
@@ -3062,16 +3062,16 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E1" t="s">
         <v>171</v>
@@ -3082,7 +3082,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B2" t="s">
         <v>325</v>
@@ -3102,7 +3102,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>79</v>
+        <v>44</v>
       </c>
       <c r="B3" t="s">
         <v>330</v>
@@ -3238,19 +3238,19 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F1" t="s">
         <v>171</v>
@@ -3259,7 +3259,7 @@
         <v>171</v>
       </c>
       <c r="H1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I1" t="s">
         <v>118</v>
@@ -3267,7 +3267,7 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B2" t="s">
         <v>342</v>
@@ -3296,7 +3296,7 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>79</v>
+        <v>44</v>
       </c>
       <c r="B3" t="s">
         <v>350</v>
@@ -3471,13 +3471,13 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D1" t="s">
         <v>171</v>
@@ -3488,7 +3488,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B2" t="s">
         <v>372</v>
@@ -3505,7 +3505,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>79</v>
+        <v>44</v>
       </c>
       <c r="B3" t="s">
         <v>376</v>
@@ -3624,10 +3624,10 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C1" t="s">
         <v>386</v>
@@ -3641,7 +3641,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B2" t="s">
         <v>387</v>
@@ -3658,7 +3658,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>79</v>
+        <v>44</v>
       </c>
       <c r="B3" t="s">
         <v>391</v>
@@ -3770,7 +3770,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="7"/>
+    <col customWidth="1" max="1" min="1" width="8"/>
     <col customWidth="1" max="2" min="2" width="1627"/>
     <col customWidth="1" max="3" min="3" width="119"/>
     <col customWidth="1" max="4" min="4" width="1095"/>
@@ -3849,123 +3849,126 @@
       <c r="B2" t="s">
         <v>26</v>
       </c>
-      <c r="C2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I2" t="s">
-        <v>33</v>
-      </c>
-      <c r="J2" t="s">
-        <v>34</v>
-      </c>
-      <c r="K2" t="s">
-        <v>35</v>
-      </c>
-      <c r="L2" t="s">
-        <v>36</v>
-      </c>
-      <c r="M2" t="s">
-        <v>37</v>
-      </c>
-      <c r="N2" t="s">
-        <v>38</v>
-      </c>
-      <c r="O2" t="s">
-        <v>39</v>
-      </c>
-      <c r="P2" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>41</v>
-      </c>
+      <c r="C2" t="s"/>
+      <c r="D2" t="s"/>
+      <c r="E2" t="s"/>
+      <c r="F2" t="s"/>
+      <c r="G2" t="s"/>
+      <c r="H2" t="s"/>
+      <c r="I2" t="s"/>
+      <c r="J2" t="s"/>
+      <c r="K2" t="s"/>
+      <c r="L2" t="s"/>
+      <c r="M2" t="s"/>
+      <c r="N2" t="s"/>
+      <c r="O2" t="s"/>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J3" t="s">
+        <v>36</v>
+      </c>
+      <c r="K3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L3" t="s">
+        <v>38</v>
+      </c>
+      <c r="M3" t="s">
+        <v>39</v>
+      </c>
+      <c r="N3" t="s">
+        <v>40</v>
+      </c>
+      <c r="O3" t="s">
+        <v>41</v>
+      </c>
+      <c r="P3" t="s">
         <v>42</v>
       </c>
-      <c r="B3" t="s">
+      <c r="Q3" t="s">
         <v>43</v>
       </c>
-      <c r="C3" t="s"/>
-      <c r="D3" t="s"/>
-      <c r="E3" t="s"/>
-      <c r="F3" t="s"/>
-      <c r="G3" t="s"/>
-      <c r="H3" t="s"/>
-      <c r="I3" t="s"/>
-      <c r="J3" t="s"/>
-      <c r="K3" t="s"/>
-      <c r="L3" t="s"/>
-      <c r="M3" t="s"/>
-      <c r="N3" t="s"/>
-      <c r="O3" t="s"/>
-      <c r="P3" t="s"/>
-      <c r="Q3" t="s"/>
     </row>
     <row r="4" spans="1:17">
+      <c r="A4" t="s">
+        <v>44</v>
+      </c>
       <c r="B4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="N4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="P4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -4003,83 +4006,83 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1" t="s">
         <v>62</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1" t="s">
         <v>63</v>
       </c>
-      <c r="E1" t="s">
+      <c r="I1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J1" t="s">
         <v>64</v>
       </c>
-      <c r="F1" t="s">
-        <v>61</v>
-      </c>
-      <c r="G1" t="s">
-        <v>65</v>
-      </c>
-      <c r="H1" t="s">
-        <v>62</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
+        <v>64</v>
+      </c>
+      <c r="L1" t="s">
         <v>66</v>
-      </c>
-      <c r="J1" t="s">
-        <v>63</v>
-      </c>
-      <c r="K1" t="s">
-        <v>63</v>
-      </c>
-      <c r="L1" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>79</v>
+        <v>44</v>
       </c>
       <c r="B3" t="s">
         <v>80</v>
@@ -4279,17 +4282,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>79</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:1">
@@ -4350,16 +4353,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" t="s">
         <v>64</v>
       </c>
-      <c r="C1" t="s">
-        <v>63</v>
-      </c>
       <c r="D1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E1" t="s">
         <v>118</v>
@@ -4367,7 +4370,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B2" t="s">
         <v>119</v>
@@ -4384,7 +4387,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>79</v>
+        <v>44</v>
       </c>
       <c r="B3" t="s">
         <v>123</v>
@@ -4501,24 +4504,24 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B2" t="s">
         <v>136</v>
@@ -4535,7 +4538,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>79</v>
+        <v>44</v>
       </c>
       <c r="B3" t="s">
         <v>140</v>
@@ -4650,22 +4653,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G1" t="s">
         <v>118</v>
@@ -4673,7 +4676,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B2" t="s">
         <v>152</v>
@@ -4696,7 +4699,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>79</v>
+        <v>44</v>
       </c>
       <c r="B3" t="s">
         <v>158</v>
@@ -4837,22 +4840,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E1" t="s">
         <v>171</v>
       </c>
       <c r="F1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G1" t="s">
         <v>118</v>
@@ -4860,7 +4863,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B2" t="s">
         <v>172</v>
@@ -4883,7 +4886,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>79</v>
+        <v>44</v>
       </c>
       <c r="B3" t="s">
         <v>178</v>
@@ -5036,13 +5039,13 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D1" t="s">
         <v>171</v>
@@ -5051,13 +5054,13 @@
         <v>171</v>
       </c>
       <c r="F1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I1" t="s">
         <v>118</v>
@@ -5065,7 +5068,7 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B2" t="s">
         <v>196</v>
@@ -5094,7 +5097,7 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>79</v>
+        <v>44</v>
       </c>
       <c r="B3" t="s">
         <v>204</v>

--- a/xml-generator/WS800.01.2017S.SD.xlsx
+++ b/xml-generator/WS800.01.2017S.SD.xlsx
@@ -1,37 +1,50 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27715"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/milesexner/Desktop/Moodle-Course/xml-generator/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17620" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Course" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Sections" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Section0" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Section1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Section2" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="Section3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="Section4" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="Section5" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="Section6" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="Section7" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="Section8" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="Section9" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="Section10" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="Section11" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="Section12" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="Section13" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="Section14" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="Section15" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="Course" sheetId="1" r:id="rId1"/>
+    <sheet name="Sections" sheetId="2" r:id="rId2"/>
+    <sheet name="Section0" sheetId="3" r:id="rId3"/>
+    <sheet name="Section1" sheetId="4" r:id="rId4"/>
+    <sheet name="Section2" sheetId="5" r:id="rId5"/>
+    <sheet name="Section3" sheetId="6" r:id="rId6"/>
+    <sheet name="Section4" sheetId="7" r:id="rId7"/>
+    <sheet name="Section5" sheetId="8" r:id="rId8"/>
+    <sheet name="Section6" sheetId="9" r:id="rId9"/>
+    <sheet name="Section7" sheetId="10" r:id="rId10"/>
+    <sheet name="Section8" sheetId="11" r:id="rId11"/>
+    <sheet name="Section9" sheetId="12" r:id="rId12"/>
+    <sheet name="Section10" sheetId="13" r:id="rId13"/>
+    <sheet name="Section11" sheetId="14" r:id="rId14"/>
+    <sheet name="Section12" sheetId="15" r:id="rId15"/>
+    <sheet name="Section13" sheetId="16" r:id="rId16"/>
+    <sheet name="Section14" sheetId="17" r:id="rId17"/>
+    <sheet name="Section15" sheetId="18" r:id="rId18"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1119" uniqueCount="617">
   <si>
     <t>Short Name</t>
   </si>
@@ -48,7 +61,7 @@
     <t>Start Date</t>
   </si>
   <si>
-    <t>2017-05-01 00:00:00</t>
+    <t>2017-05-01</t>
   </si>
   <si>
     <t>Backup Location</t>
@@ -372,6 +385,48 @@
     <t>/Users/milesexner/Desktop/Moodle-Course/ws800-01/sections/section_101193/section.xml</t>
   </si>
   <si>
+    <t>Activities</t>
+  </si>
+  <si>
+    <t>149172,149171,153116,158128,149173,149174,149175,149176,149178,150114,149179</t>
+  </si>
+  <si>
+    <t>149180,149181,149183,149184</t>
+  </si>
+  <si>
+    <t>149185,149186,149188,149182</t>
+  </si>
+  <si>
+    <t>149190,149191,149192,149193,149194,149195</t>
+  </si>
+  <si>
+    <t>158719,149197,149198,149199,149200,149201</t>
+  </si>
+  <si>
+    <t>149196,149203,149204,149205,149207,149208,149209,149210</t>
+  </si>
+  <si>
+    <t>149211,149212,149213,149214,149215,149216,149217,149218,149219,149220</t>
+  </si>
+  <si>
+    <t>149221,149222,149223,149224,149225,149226,149227,149228,149229,149230</t>
+  </si>
+  <si>
+    <t>149231,149232,149233,149234,149235,149236,149237,150226,150227,149238</t>
+  </si>
+  <si>
+    <t>149239,149240,149241,149242,149243</t>
+  </si>
+  <si>
+    <t>149244,149245,149246,149247,149248,149249,149250,149251</t>
+  </si>
+  <si>
+    <t>149252,149253,149254,149255</t>
+  </si>
+  <si>
+    <t>149256,152335,149257,149258</t>
+  </si>
+  <si>
     <t>Module</t>
   </si>
   <si>
@@ -393,7 +448,16 @@
     <t>folder</t>
   </si>
   <si>
-    <t>ID</t>
+    <t>Section</t>
+  </si>
+  <si>
+    <t>Section ID</t>
+  </si>
+  <si>
+    <t>100723</t>
+  </si>
+  <si>
+    <t>Module ID</t>
   </si>
   <si>
     <t>149172</t>
@@ -429,6 +493,45 @@
     <t>149179</t>
   </si>
   <si>
+    <t>Activity ID</t>
+  </si>
+  <si>
+    <t>25454</t>
+  </si>
+  <si>
+    <t>11316</t>
+  </si>
+  <si>
+    <t>18811</t>
+  </si>
+  <si>
+    <t>13417</t>
+  </si>
+  <si>
+    <t>25455</t>
+  </si>
+  <si>
+    <t>5215</t>
+  </si>
+  <si>
+    <t>11317</t>
+  </si>
+  <si>
+    <t>9423</t>
+  </si>
+  <si>
+    <t>18110</t>
+  </si>
+  <si>
+    <t>18348</t>
+  </si>
+  <si>
+    <t>5216</t>
+  </si>
+  <si>
+    <t>Activity Location</t>
+  </si>
+  <si>
     <t>/Users/milesexner/Desktop/Moodle-Course/ws800-01/activities/page_149172/page.xml</t>
   </si>
   <si>
@@ -462,7 +565,40 @@
     <t>/Users/milesexner/Desktop/Moodle-Course/ws800-01/activities/hsuforum_149179/hsuforum.xml</t>
   </si>
   <si>
-    <t>Webinar Classroom</t>
+    <t>Module Location</t>
+  </si>
+  <si>
+    <t>/Users/milesexner/Desktop/Moodle-Course/ws800-01/activities/page_149172/module.xml</t>
+  </si>
+  <si>
+    <t>/Users/milesexner/Desktop/Moodle-Course/ws800-01/activities/forum_149171/module.xml</t>
+  </si>
+  <si>
+    <t>/Users/milesexner/Desktop/Moodle-Course/ws800-01/activities/resource_153116/module.xml</t>
+  </si>
+  <si>
+    <t>/Users/milesexner/Desktop/Moodle-Course/ws800-01/activities/url_158128/module.xml</t>
+  </si>
+  <si>
+    <t>/Users/milesexner/Desktop/Moodle-Course/ws800-01/activities/page_149173/module.xml</t>
+  </si>
+  <si>
+    <t>/Users/milesexner/Desktop/Moodle-Course/ws800-01/activities/hsuforum_149174/module.xml</t>
+  </si>
+  <si>
+    <t>/Users/milesexner/Desktop/Moodle-Course/ws800-01/activities/forum_149175/module.xml</t>
+  </si>
+  <si>
+    <t>/Users/milesexner/Desktop/Moodle-Course/ws800-01/activities/folder_149176/module.xml</t>
+  </si>
+  <si>
+    <t>/Users/milesexner/Desktop/Moodle-Course/ws800-01/activities/resource_149178/module.xml</t>
+  </si>
+  <si>
+    <t>/Users/milesexner/Desktop/Moodle-Course/ws800-01/activities/resource_150114/module.xml</t>
+  </si>
+  <si>
+    <t>/Users/milesexner/Desktop/Moodle-Course/ws800-01/activities/hsuforum_149179/module.xml</t>
   </si>
   <si>
     <t>Announcements</t>
@@ -659,6 +795,9 @@
     <t>questionnaire</t>
   </si>
   <si>
+    <t>101179</t>
+  </si>
+  <si>
     <t>149180</t>
   </si>
   <si>
@@ -671,6 +810,18 @@
     <t>149184</t>
   </si>
   <si>
+    <t>11947</t>
+  </si>
+  <si>
+    <t>18111</t>
+  </si>
+  <si>
+    <t>11948</t>
+  </si>
+  <si>
+    <t>2052</t>
+  </si>
+  <si>
     <t>/Users/milesexner/Desktop/Moodle-Course/ws800-01/activities/url_149180/url.xml</t>
   </si>
   <si>
@@ -681,6 +832,18 @@
   </si>
   <si>
     <t>/Users/milesexner/Desktop/Moodle-Course/ws800-01/activities/questionnaire_149184/questionnaire.xml</t>
+  </si>
+  <si>
+    <t>/Users/milesexner/Desktop/Moodle-Course/ws800-01/activities/url_149180/module.xml</t>
+  </si>
+  <si>
+    <t>/Users/milesexner/Desktop/Moodle-Course/ws800-01/activities/resource_149181/module.xml</t>
+  </si>
+  <si>
+    <t>/Users/milesexner/Desktop/Moodle-Course/ws800-01/activities/url_149183/module.xml</t>
+  </si>
+  <si>
+    <t>/Users/milesexner/Desktop/Moodle-Course/ws800-01/activities/questionnaire_149184/module.xml</t>
   </si>
   <si>
     <t>Click here to view the Webinar Recording</t>
@@ -711,6 +874,9 @@
     <t>http://support.pacificcollege.edu/portal/kb/vk9vyQUeiTi4I9rhIBxDN9QTKaXtGXfhFIH</t>
   </si>
   <si>
+    <t>101188</t>
+  </si>
+  <si>
     <t>149185</t>
   </si>
   <si>
@@ -723,6 +889,18 @@
     <t>149182</t>
   </si>
   <si>
+    <t>25456</t>
+  </si>
+  <si>
+    <t>25457</t>
+  </si>
+  <si>
+    <t>18112</t>
+  </si>
+  <si>
+    <t>5217</t>
+  </si>
+  <si>
     <t>/Users/milesexner/Desktop/Moodle-Course/ws800-01/activities/page_149185/page.xml</t>
   </si>
   <si>
@@ -733,6 +911,18 @@
   </si>
   <si>
     <t>/Users/milesexner/Desktop/Moodle-Course/ws800-01/activities/hsuforum_149182/hsuforum.xml</t>
+  </si>
+  <si>
+    <t>/Users/milesexner/Desktop/Moodle-Course/ws800-01/activities/page_149185/module.xml</t>
+  </si>
+  <si>
+    <t>/Users/milesexner/Desktop/Moodle-Course/ws800-01/activities/page_149186/module.xml</t>
+  </si>
+  <si>
+    <t>/Users/milesexner/Desktop/Moodle-Course/ws800-01/activities/resource_149188/module.xml</t>
+  </si>
+  <si>
+    <t>/Users/milesexner/Desktop/Moodle-Course/ws800-01/activities/hsuforum_149182/module.xml</t>
   </si>
   <si>
     <t>Online EIP Modules</t>
@@ -792,6 +982,9 @@
 &lt;p&gt;&lt;/p&gt;</t>
   </si>
   <si>
+    <t>101182</t>
+  </si>
+  <si>
     <t>149190</t>
   </si>
   <si>
@@ -810,6 +1003,24 @@
     <t>149195</t>
   </si>
   <si>
+    <t>25458</t>
+  </si>
+  <si>
+    <t>25459</t>
+  </si>
+  <si>
+    <t>18113</t>
+  </si>
+  <si>
+    <t>18114</t>
+  </si>
+  <si>
+    <t>18115</t>
+  </si>
+  <si>
+    <t>2054</t>
+  </si>
+  <si>
     <t>/Users/milesexner/Desktop/Moodle-Course/ws800-01/activities/page_149190/page.xml</t>
   </si>
   <si>
@@ -826,6 +1037,24 @@
   </si>
   <si>
     <t>/Users/milesexner/Desktop/Moodle-Course/ws800-01/activities/questionnaire_149195/questionnaire.xml</t>
+  </si>
+  <si>
+    <t>/Users/milesexner/Desktop/Moodle-Course/ws800-01/activities/page_149190/module.xml</t>
+  </si>
+  <si>
+    <t>/Users/milesexner/Desktop/Moodle-Course/ws800-01/activities/page_149191/module.xml</t>
+  </si>
+  <si>
+    <t>/Users/milesexner/Desktop/Moodle-Course/ws800-01/activities/resource_149192/module.xml</t>
+  </si>
+  <si>
+    <t>/Users/milesexner/Desktop/Moodle-Course/ws800-01/activities/resource_149193/module.xml</t>
+  </si>
+  <si>
+    <t>/Users/milesexner/Desktop/Moodle-Course/ws800-01/activities/resource_149194/module.xml</t>
+  </si>
+  <si>
+    <t>/Users/milesexner/Desktop/Moodle-Course/ws800-01/activities/questionnaire_149195/module.xml</t>
   </si>
   <si>
     <t>Kligler &amp; Weeks 2014, Langevin et al 2001 and MacPherson et al. 2016</t>
@@ -881,6 +1110,9 @@
     <t>assign</t>
   </si>
   <si>
+    <t>101183</t>
+  </si>
+  <si>
     <t>158719</t>
   </si>
   <si>
@@ -899,6 +1131,24 @@
     <t>149201</t>
   </si>
   <si>
+    <t>20229</t>
+  </si>
+  <si>
+    <t>11950</t>
+  </si>
+  <si>
+    <t>11951</t>
+  </si>
+  <si>
+    <t>9976</t>
+  </si>
+  <si>
+    <t>25460</t>
+  </si>
+  <si>
+    <t>2055</t>
+  </si>
+  <si>
     <t>/Users/milesexner/Desktop/Moodle-Course/ws800-01/activities/resource_158719/resource.xml</t>
   </si>
   <si>
@@ -915,6 +1165,24 @@
   </si>
   <si>
     <t>/Users/milesexner/Desktop/Moodle-Course/ws800-01/activities/questionnaire_149201/questionnaire.xml</t>
+  </si>
+  <si>
+    <t>/Users/milesexner/Desktop/Moodle-Course/ws800-01/activities/resource_158719/module.xml</t>
+  </si>
+  <si>
+    <t>/Users/milesexner/Desktop/Moodle-Course/ws800-01/activities/url_149197/module.xml</t>
+  </si>
+  <si>
+    <t>/Users/milesexner/Desktop/Moodle-Course/ws800-01/activities/url_149198/module.xml</t>
+  </si>
+  <si>
+    <t>/Users/milesexner/Desktop/Moodle-Course/ws800-01/activities/assign_149199/module.xml</t>
+  </si>
+  <si>
+    <t>/Users/milesexner/Desktop/Moodle-Course/ws800-01/activities/page_149200/module.xml</t>
+  </si>
+  <si>
+    <t>/Users/milesexner/Desktop/Moodle-Course/ws800-01/activities/questionnaire_149201/module.xml</t>
   </si>
   <si>
     <t>Lecture Handout</t>
@@ -957,7 +1225,10 @@
     <t>100</t>
   </si>
   <si>
-    <t>2017-05-30 23:55:00</t>
+    <t>2017-05-30 23:55</t>
+  </si>
+  <si>
+    <t>101184</t>
   </si>
   <si>
     <t>149196</t>
@@ -984,6 +1255,30 @@
     <t>149210</t>
   </si>
   <si>
+    <t>18116</t>
+  </si>
+  <si>
+    <t>11952</t>
+  </si>
+  <si>
+    <t>9977</t>
+  </si>
+  <si>
+    <t>9978</t>
+  </si>
+  <si>
+    <t>25462</t>
+  </si>
+  <si>
+    <t>18118</t>
+  </si>
+  <si>
+    <t>18119</t>
+  </si>
+  <si>
+    <t>2056</t>
+  </si>
+  <si>
     <t>/Users/milesexner/Desktop/Moodle-Course/ws800-01/activities/resource_149196/resource.xml</t>
   </si>
   <si>
@@ -1006,6 +1301,30 @@
   </si>
   <si>
     <t>/Users/milesexner/Desktop/Moodle-Course/ws800-01/activities/questionnaire_149210/questionnaire.xml</t>
+  </si>
+  <si>
+    <t>/Users/milesexner/Desktop/Moodle-Course/ws800-01/activities/resource_149196/module.xml</t>
+  </si>
+  <si>
+    <t>/Users/milesexner/Desktop/Moodle-Course/ws800-01/activities/url_149203/module.xml</t>
+  </si>
+  <si>
+    <t>/Users/milesexner/Desktop/Moodle-Course/ws800-01/activities/assign_149204/module.xml</t>
+  </si>
+  <si>
+    <t>/Users/milesexner/Desktop/Moodle-Course/ws800-01/activities/assign_149205/module.xml</t>
+  </si>
+  <si>
+    <t>/Users/milesexner/Desktop/Moodle-Course/ws800-01/activities/page_149207/module.xml</t>
+  </si>
+  <si>
+    <t>/Users/milesexner/Desktop/Moodle-Course/ws800-01/activities/resource_149208/module.xml</t>
+  </si>
+  <si>
+    <t>/Users/milesexner/Desktop/Moodle-Course/ws800-01/activities/resource_149209/module.xml</t>
+  </si>
+  <si>
+    <t>/Users/milesexner/Desktop/Moodle-Course/ws800-01/activities/questionnaire_149210/module.xml</t>
   </si>
   <si>
     <t>Lecture Slides Handout</t>
@@ -1047,7 +1366,10 @@
     <t>http://meet72083245.adobeconnect.com/p4som1wz3u0/</t>
   </si>
   <si>
-    <t>2017-06-06 23:55:00</t>
+    <t>2017-06-06 23:55</t>
+  </si>
+  <si>
+    <t>101185</t>
   </si>
   <si>
     <t>149211</t>
@@ -1080,6 +1402,36 @@
     <t>149220</t>
   </si>
   <si>
+    <t>18120</t>
+  </si>
+  <si>
+    <t>18121</t>
+  </si>
+  <si>
+    <t>11953</t>
+  </si>
+  <si>
+    <t>9979</t>
+  </si>
+  <si>
+    <t>9980</t>
+  </si>
+  <si>
+    <t>25463</t>
+  </si>
+  <si>
+    <t>18122</t>
+  </si>
+  <si>
+    <t>18123</t>
+  </si>
+  <si>
+    <t>18124</t>
+  </si>
+  <si>
+    <t>2057</t>
+  </si>
+  <si>
     <t>/Users/milesexner/Desktop/Moodle-Course/ws800-01/activities/resource_149211/resource.xml</t>
   </si>
   <si>
@@ -1108,6 +1460,36 @@
   </si>
   <si>
     <t>/Users/milesexner/Desktop/Moodle-Course/ws800-01/activities/questionnaire_149220/questionnaire.xml</t>
+  </si>
+  <si>
+    <t>/Users/milesexner/Desktop/Moodle-Course/ws800-01/activities/resource_149211/module.xml</t>
+  </si>
+  <si>
+    <t>/Users/milesexner/Desktop/Moodle-Course/ws800-01/activities/resource_149212/module.xml</t>
+  </si>
+  <si>
+    <t>/Users/milesexner/Desktop/Moodle-Course/ws800-01/activities/url_149213/module.xml</t>
+  </si>
+  <si>
+    <t>/Users/milesexner/Desktop/Moodle-Course/ws800-01/activities/assign_149214/module.xml</t>
+  </si>
+  <si>
+    <t>/Users/milesexner/Desktop/Moodle-Course/ws800-01/activities/assign_149215/module.xml</t>
+  </si>
+  <si>
+    <t>/Users/milesexner/Desktop/Moodle-Course/ws800-01/activities/page_149216/module.xml</t>
+  </si>
+  <si>
+    <t>/Users/milesexner/Desktop/Moodle-Course/ws800-01/activities/resource_149217/module.xml</t>
+  </si>
+  <si>
+    <t>/Users/milesexner/Desktop/Moodle-Course/ws800-01/activities/resource_149218/module.xml</t>
+  </si>
+  <si>
+    <t>/Users/milesexner/Desktop/Moodle-Course/ws800-01/activities/resource_149219/module.xml</t>
+  </si>
+  <si>
+    <t>/Users/milesexner/Desktop/Moodle-Course/ws800-01/activities/questionnaire_149220/module.xml</t>
   </si>
   <si>
     <t>Example of Observational Research assignment</t>
@@ -1185,7 +1567,10 @@
     <t>http://meet72083245.adobeconnect.com/p7ojknnedao/</t>
   </si>
   <si>
-    <t>2017-06-13 23:55:00</t>
+    <t>2017-06-13 23:55</t>
+  </si>
+  <si>
+    <t>101186</t>
   </si>
   <si>
     <t>149221</t>
@@ -1218,6 +1603,36 @@
     <t>149230</t>
   </si>
   <si>
+    <t>9425</t>
+  </si>
+  <si>
+    <t>18125</t>
+  </si>
+  <si>
+    <t>11954</t>
+  </si>
+  <si>
+    <t>9981</t>
+  </si>
+  <si>
+    <t>5218</t>
+  </si>
+  <si>
+    <t>25464</t>
+  </si>
+  <si>
+    <t>18126</t>
+  </si>
+  <si>
+    <t>18127</t>
+  </si>
+  <si>
+    <t>18128</t>
+  </si>
+  <si>
+    <t>2058</t>
+  </si>
+  <si>
     <t>/Users/milesexner/Desktop/Moodle-Course/ws800-01/activities/folder_149221/folder.xml</t>
   </si>
   <si>
@@ -1246,6 +1661,36 @@
   </si>
   <si>
     <t>/Users/milesexner/Desktop/Moodle-Course/ws800-01/activities/questionnaire_149230/questionnaire.xml</t>
+  </si>
+  <si>
+    <t>/Users/milesexner/Desktop/Moodle-Course/ws800-01/activities/folder_149221/module.xml</t>
+  </si>
+  <si>
+    <t>/Users/milesexner/Desktop/Moodle-Course/ws800-01/activities/resource_149222/module.xml</t>
+  </si>
+  <si>
+    <t>/Users/milesexner/Desktop/Moodle-Course/ws800-01/activities/url_149223/module.xml</t>
+  </si>
+  <si>
+    <t>/Users/milesexner/Desktop/Moodle-Course/ws800-01/activities/assign_149224/module.xml</t>
+  </si>
+  <si>
+    <t>/Users/milesexner/Desktop/Moodle-Course/ws800-01/activities/hsuforum_149225/module.xml</t>
+  </si>
+  <si>
+    <t>/Users/milesexner/Desktop/Moodle-Course/ws800-01/activities/page_149226/module.xml</t>
+  </si>
+  <si>
+    <t>/Users/milesexner/Desktop/Moodle-Course/ws800-01/activities/resource_149227/module.xml</t>
+  </si>
+  <si>
+    <t>/Users/milesexner/Desktop/Moodle-Course/ws800-01/activities/resource_149228/module.xml</t>
+  </si>
+  <si>
+    <t>/Users/milesexner/Desktop/Moodle-Course/ws800-01/activities/resource_149229/module.xml</t>
+  </si>
+  <si>
+    <t>/Users/milesexner/Desktop/Moodle-Course/ws800-01/activities/questionnaire_149230/module.xml</t>
   </si>
   <si>
     <t>In Class Exercise #4: Additional Documents</t>
@@ -1318,7 +1763,10 @@
     <t>http://meet72083245.adobeconnect.com/p682yjo7du6/</t>
   </si>
   <si>
-    <t>2017-06-27 23:55:00</t>
+    <t>2017-06-27 23:55</t>
+  </si>
+  <si>
+    <t>101187</t>
   </si>
   <si>
     <t>149231</t>
@@ -1351,6 +1799,36 @@
     <t>149238</t>
   </si>
   <si>
+    <t>18129</t>
+  </si>
+  <si>
+    <t>11955</t>
+  </si>
+  <si>
+    <t>9982</t>
+  </si>
+  <si>
+    <t>9983</t>
+  </si>
+  <si>
+    <t>25465</t>
+  </si>
+  <si>
+    <t>18130</t>
+  </si>
+  <si>
+    <t>18131</t>
+  </si>
+  <si>
+    <t>18387</t>
+  </si>
+  <si>
+    <t>18388</t>
+  </si>
+  <si>
+    <t>2059</t>
+  </si>
+  <si>
     <t>/Users/milesexner/Desktop/Moodle-Course/ws800-01/activities/resource_149231/resource.xml</t>
   </si>
   <si>
@@ -1379,6 +1857,36 @@
   </si>
   <si>
     <t>/Users/milesexner/Desktop/Moodle-Course/ws800-01/activities/questionnaire_149238/questionnaire.xml</t>
+  </si>
+  <si>
+    <t>/Users/milesexner/Desktop/Moodle-Course/ws800-01/activities/resource_149231/module.xml</t>
+  </si>
+  <si>
+    <t>/Users/milesexner/Desktop/Moodle-Course/ws800-01/activities/url_149232/module.xml</t>
+  </si>
+  <si>
+    <t>/Users/milesexner/Desktop/Moodle-Course/ws800-01/activities/assign_149233/module.xml</t>
+  </si>
+  <si>
+    <t>/Users/milesexner/Desktop/Moodle-Course/ws800-01/activities/assign_149234/module.xml</t>
+  </si>
+  <si>
+    <t>/Users/milesexner/Desktop/Moodle-Course/ws800-01/activities/page_149235/module.xml</t>
+  </si>
+  <si>
+    <t>/Users/milesexner/Desktop/Moodle-Course/ws800-01/activities/resource_149236/module.xml</t>
+  </si>
+  <si>
+    <t>/Users/milesexner/Desktop/Moodle-Course/ws800-01/activities/resource_149237/module.xml</t>
+  </si>
+  <si>
+    <t>/Users/milesexner/Desktop/Moodle-Course/ws800-01/activities/resource_150226/module.xml</t>
+  </si>
+  <si>
+    <t>/Users/milesexner/Desktop/Moodle-Course/ws800-01/activities/resource_150227/module.xml</t>
+  </si>
+  <si>
+    <t>/Users/milesexner/Desktop/Moodle-Course/ws800-01/activities/questionnaire_149238/module.xml</t>
   </si>
   <si>
     <t>MYMOP Initial Form</t>
@@ -1432,7 +1940,10 @@
     <t>http://meet72083245.adobeconnect.com/p3l316fkfe6/</t>
   </si>
   <si>
-    <t>2017-07-11 23:55:00</t>
+    <t>2017-07-11 23:55</t>
+  </si>
+  <si>
+    <t>101190</t>
   </si>
   <si>
     <t>149239</t>
@@ -1450,6 +1961,21 @@
     <t>149243</t>
   </si>
   <si>
+    <t>18132</t>
+  </si>
+  <si>
+    <t>11956</t>
+  </si>
+  <si>
+    <t>5219</t>
+  </si>
+  <si>
+    <t>9984</t>
+  </si>
+  <si>
+    <t>2060</t>
+  </si>
+  <si>
     <t>/Users/milesexner/Desktop/Moodle-Course/ws800-01/activities/resource_149239/resource.xml</t>
   </si>
   <si>
@@ -1463,6 +1989,21 @@
   </si>
   <si>
     <t>/Users/milesexner/Desktop/Moodle-Course/ws800-01/activities/questionnaire_149243/questionnaire.xml</t>
+  </si>
+  <si>
+    <t>/Users/milesexner/Desktop/Moodle-Course/ws800-01/activities/resource_149239/module.xml</t>
+  </si>
+  <si>
+    <t>/Users/milesexner/Desktop/Moodle-Course/ws800-01/activities/url_149240/module.xml</t>
+  </si>
+  <si>
+    <t>/Users/milesexner/Desktop/Moodle-Course/ws800-01/activities/hsuforum_149241/module.xml</t>
+  </si>
+  <si>
+    <t>/Users/milesexner/Desktop/Moodle-Course/ws800-01/activities/assign_149242/module.xml</t>
+  </si>
+  <si>
+    <t>/Users/milesexner/Desktop/Moodle-Course/ws800-01/activities/questionnaire_149243/module.xml</t>
   </si>
   <si>
     <t xml:space="preserve">Click here to view the Webinar recording </t>
@@ -1489,7 +2030,10 @@
     <t>http://meet72083245.adobeconnect.com/p8l5gj6romd/</t>
   </si>
   <si>
-    <t>2017-07-18 23:55:00</t>
+    <t>2017-07-18 23:55</t>
+  </si>
+  <si>
+    <t>101191</t>
   </si>
   <si>
     <t>149244</t>
@@ -1516,6 +2060,30 @@
     <t>149251</t>
   </si>
   <si>
+    <t>9426</t>
+  </si>
+  <si>
+    <t>18133</t>
+  </si>
+  <si>
+    <t>18134</t>
+  </si>
+  <si>
+    <t>11957</t>
+  </si>
+  <si>
+    <t>9985</t>
+  </si>
+  <si>
+    <t>9986</t>
+  </si>
+  <si>
+    <t>25466</t>
+  </si>
+  <si>
+    <t>2061</t>
+  </si>
+  <si>
     <t>/Users/milesexner/Desktop/Moodle-Course/ws800-01/activities/folder_149244/folder.xml</t>
   </si>
   <si>
@@ -1538,6 +2106,30 @@
   </si>
   <si>
     <t>/Users/milesexner/Desktop/Moodle-Course/ws800-01/activities/questionnaire_149251/questionnaire.xml</t>
+  </si>
+  <si>
+    <t>/Users/milesexner/Desktop/Moodle-Course/ws800-01/activities/folder_149244/module.xml</t>
+  </si>
+  <si>
+    <t>/Users/milesexner/Desktop/Moodle-Course/ws800-01/activities/resource_149245/module.xml</t>
+  </si>
+  <si>
+    <t>/Users/milesexner/Desktop/Moodle-Course/ws800-01/activities/resource_149246/module.xml</t>
+  </si>
+  <si>
+    <t>/Users/milesexner/Desktop/Moodle-Course/ws800-01/activities/url_149247/module.xml</t>
+  </si>
+  <si>
+    <t>/Users/milesexner/Desktop/Moodle-Course/ws800-01/activities/assign_149248/module.xml</t>
+  </si>
+  <si>
+    <t>/Users/milesexner/Desktop/Moodle-Course/ws800-01/activities/assign_149249/module.xml</t>
+  </si>
+  <si>
+    <t>/Users/milesexner/Desktop/Moodle-Course/ws800-01/activities/page_149250/module.xml</t>
+  </si>
+  <si>
+    <t>/Users/milesexner/Desktop/Moodle-Course/ws800-01/activities/questionnaire_149251/module.xml</t>
   </si>
   <si>
     <t>Debate Library</t>
@@ -1599,7 +2191,10 @@
     <t>http://meet72083245.adobeconnect.com/p8a5vg19j16/</t>
   </si>
   <si>
-    <t>2017-07-25 23:55:00</t>
+    <t>2017-07-25 23:55</t>
+  </si>
+  <si>
+    <t>101192</t>
   </si>
   <si>
     <t>149252</t>
@@ -1614,6 +2209,18 @@
     <t>149255</t>
   </si>
   <si>
+    <t>18135</t>
+  </si>
+  <si>
+    <t>11958</t>
+  </si>
+  <si>
+    <t>9987</t>
+  </si>
+  <si>
+    <t>2062</t>
+  </si>
+  <si>
     <t>/Users/milesexner/Desktop/Moodle-Course/ws800-01/activities/resource_149252/resource.xml</t>
   </si>
   <si>
@@ -1624,6 +2231,18 @@
   </si>
   <si>
     <t>/Users/milesexner/Desktop/Moodle-Course/ws800-01/activities/questionnaire_149255/questionnaire.xml</t>
+  </si>
+  <si>
+    <t>/Users/milesexner/Desktop/Moodle-Course/ws800-01/activities/resource_149252/module.xml</t>
+  </si>
+  <si>
+    <t>/Users/milesexner/Desktop/Moodle-Course/ws800-01/activities/url_149253/module.xml</t>
+  </si>
+  <si>
+    <t>/Users/milesexner/Desktop/Moodle-Course/ws800-01/activities/assign_149254/module.xml</t>
+  </si>
+  <si>
+    <t>/Users/milesexner/Desktop/Moodle-Course/ws800-01/activities/questionnaire_149255/module.xml</t>
   </si>
   <si>
     <t>Debate Rubric for Moderators</t>
@@ -1647,12 +2266,15 @@
     <t>http://meet72083245.adobeconnect.com/r69ul9xrko9/</t>
   </si>
   <si>
-    <t>2017-08-01 23:55:00</t>
+    <t>2017-08-01 23:55</t>
   </si>
   <si>
     <t>quiz</t>
   </si>
   <si>
+    <t>101193</t>
+  </si>
+  <si>
     <t>149256</t>
   </si>
   <si>
@@ -1665,6 +2287,18 @@
     <t>149258</t>
   </si>
   <si>
+    <t>18136</t>
+  </si>
+  <si>
+    <t>6588</t>
+  </si>
+  <si>
+    <t>9988</t>
+  </si>
+  <si>
+    <t>2063</t>
+  </si>
+  <si>
     <t>/Users/milesexner/Desktop/Moodle-Course/ws800-01/activities/resource_149256/resource.xml</t>
   </si>
   <si>
@@ -1675,6 +2309,18 @@
   </si>
   <si>
     <t>/Users/milesexner/Desktop/Moodle-Course/ws800-01/activities/questionnaire_149258/questionnaire.xml</t>
+  </si>
+  <si>
+    <t>/Users/milesexner/Desktop/Moodle-Course/ws800-01/activities/resource_149256/module.xml</t>
+  </si>
+  <si>
+    <t>/Users/milesexner/Desktop/Moodle-Course/ws800-01/activities/quiz_152335/module.xml</t>
+  </si>
+  <si>
+    <t>/Users/milesexner/Desktop/Moodle-Course/ws800-01/activities/assign_149257/module.xml</t>
+  </si>
+  <si>
+    <t>/Users/milesexner/Desktop/Moodle-Course/ws800-01/activities/questionnaire_149258/module.xml</t>
   </si>
   <si>
     <t>Sample case study</t>
@@ -1710,26 +2356,28 @@
     <t>100.00000</t>
   </si>
   <si>
-    <t>2017-08-08 23:55:00</t>
+    <t>2017-08-08 23:55</t>
+  </si>
+  <si>
+    <t>Webinar Classroom Moved to Section 2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -1745,15 +2393,24 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -2041,24 +2698,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="15"/>
-    <col customWidth="1" max="2" min="2" width="66"/>
+    <col min="1" max="1" width="15" customWidth="1"/>
+    <col min="2" max="2" width="66" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2066,7 +2717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -2074,7 +2725,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -2082,7 +2733,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -2091,1705 +2742,2243 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:K9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="8"/>
-    <col customWidth="1" max="2" min="2" width="88"/>
-    <col customWidth="1" max="3" min="3" width="88"/>
-    <col customWidth="1" max="4" min="4" width="78"/>
-    <col customWidth="1" max="5" min="5" width="1210"/>
-    <col customWidth="1" max="6" min="6" width="729"/>
-    <col customWidth="1" max="7" min="7" width="2014"/>
-    <col customWidth="1" max="8" min="8" width="88"/>
-    <col customWidth="1" max="9" min="9" width="88"/>
-    <col customWidth="1" max="10" min="10" width="88"/>
-    <col customWidth="1" max="11" min="11" width="103"/>
+    <col min="1" max="1" width="17" customWidth="1"/>
+    <col min="2" max="3" width="88" customWidth="1"/>
+    <col min="4" max="4" width="81" customWidth="1"/>
+    <col min="5" max="5" width="1210" customWidth="1"/>
+    <col min="6" max="6" width="729" customWidth="1"/>
+    <col min="7" max="7" width="2014" customWidth="1"/>
+    <col min="8" max="10" width="88" customWidth="1"/>
+    <col min="11" max="11" width="103" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="B1" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="C1" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="D1" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="E1" t="s">
-        <v>171</v>
+        <v>243</v>
       </c>
       <c r="F1" t="s">
-        <v>171</v>
+        <v>243</v>
       </c>
       <c r="G1" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="H1" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="I1" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="J1" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="K1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="B2" t="s">
-        <v>223</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>224</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>225</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>226</v>
+        <v>16</v>
       </c>
       <c r="F2" t="s">
-        <v>227</v>
+        <v>16</v>
       </c>
       <c r="G2" t="s">
-        <v>228</v>
+        <v>16</v>
       </c>
       <c r="H2" t="s">
-        <v>229</v>
+        <v>16</v>
       </c>
       <c r="I2" t="s">
-        <v>230</v>
+        <v>16</v>
       </c>
       <c r="J2" t="s">
-        <v>231</v>
+        <v>16</v>
       </c>
       <c r="K2" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>44</v>
+        <v>83</v>
       </c>
       <c r="B3" t="s">
-        <v>233</v>
+        <v>325</v>
       </c>
       <c r="C3" t="s">
-        <v>234</v>
+        <v>325</v>
       </c>
       <c r="D3" t="s">
-        <v>235</v>
+        <v>325</v>
       </c>
       <c r="E3" t="s">
-        <v>236</v>
+        <v>325</v>
       </c>
       <c r="F3" t="s">
-        <v>237</v>
+        <v>325</v>
       </c>
       <c r="G3" t="s">
-        <v>238</v>
+        <v>325</v>
       </c>
       <c r="H3" t="s">
-        <v>239</v>
+        <v>325</v>
       </c>
       <c r="I3" t="s">
-        <v>240</v>
+        <v>325</v>
       </c>
       <c r="J3" t="s">
-        <v>241</v>
+        <v>325</v>
       </c>
       <c r="K3" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B4" t="s">
+        <v>326</v>
+      </c>
+      <c r="C4" t="s">
+        <v>327</v>
+      </c>
+      <c r="D4" t="s">
+        <v>328</v>
+      </c>
+      <c r="E4" t="s">
+        <v>329</v>
+      </c>
+      <c r="F4" t="s">
+        <v>330</v>
+      </c>
+      <c r="G4" t="s">
+        <v>331</v>
+      </c>
+      <c r="H4" t="s">
+        <v>332</v>
+      </c>
+      <c r="I4" t="s">
+        <v>333</v>
+      </c>
+      <c r="J4" t="s">
+        <v>334</v>
+      </c>
+      <c r="K4" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B5" t="s">
+        <v>336</v>
+      </c>
+      <c r="C5" t="s">
+        <v>337</v>
+      </c>
+      <c r="D5" t="s">
+        <v>338</v>
+      </c>
+      <c r="E5" t="s">
+        <v>339</v>
+      </c>
+      <c r="F5" t="s">
+        <v>340</v>
+      </c>
+      <c r="G5" t="s">
+        <v>341</v>
+      </c>
+      <c r="H5" t="s">
+        <v>342</v>
+      </c>
+      <c r="I5" t="s">
+        <v>343</v>
+      </c>
+      <c r="J5" t="s">
+        <v>344</v>
+      </c>
+      <c r="K5" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>109</v>
+      </c>
+      <c r="B6" t="s">
+        <v>346</v>
+      </c>
+      <c r="C6" t="s">
+        <v>347</v>
+      </c>
+      <c r="D6" t="s">
+        <v>348</v>
+      </c>
+      <c r="E6" t="s">
+        <v>349</v>
+      </c>
+      <c r="F6" t="s">
+        <v>350</v>
+      </c>
+      <c r="G6" t="s">
+        <v>351</v>
+      </c>
+      <c r="H6" t="s">
+        <v>352</v>
+      </c>
+      <c r="I6" t="s">
+        <v>353</v>
+      </c>
+      <c r="J6" t="s">
+        <v>354</v>
+      </c>
+      <c r="K6" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>121</v>
+      </c>
+      <c r="B7" t="s">
+        <v>356</v>
+      </c>
+      <c r="C7" t="s">
+        <v>357</v>
+      </c>
+      <c r="D7" t="s">
+        <v>358</v>
+      </c>
+      <c r="E7" t="s">
+        <v>359</v>
+      </c>
+      <c r="F7" t="s">
+        <v>360</v>
+      </c>
+      <c r="G7" t="s">
+        <v>361</v>
+      </c>
+      <c r="H7" t="s">
+        <v>362</v>
+      </c>
+      <c r="I7" t="s">
+        <v>363</v>
+      </c>
+      <c r="J7" t="s">
+        <v>364</v>
+      </c>
+      <c r="K7" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>25</v>
       </c>
-      <c r="B4" t="s">
-        <v>243</v>
-      </c>
-      <c r="C4" t="s">
-        <v>212</v>
-      </c>
-      <c r="D4" t="s">
-        <v>244</v>
-      </c>
-      <c r="E4" t="s">
-        <v>245</v>
-      </c>
-      <c r="F4" t="s">
-        <v>246</v>
-      </c>
-      <c r="G4" t="s">
-        <v>247</v>
-      </c>
-      <c r="H4" t="s">
-        <v>248</v>
-      </c>
-      <c r="I4" t="s">
-        <v>249</v>
-      </c>
-      <c r="J4" t="s">
-        <v>250</v>
-      </c>
-      <c r="K4" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" t="s">
-        <v>102</v>
-      </c>
-      <c r="B5" t="s">
-        <v>251</v>
-      </c>
-      <c r="C5" t="s"/>
-      <c r="D5" t="s">
-        <v>131</v>
-      </c>
-      <c r="E5" t="s">
-        <v>252</v>
-      </c>
-      <c r="F5" t="s">
-        <v>253</v>
-      </c>
-      <c r="G5" t="s">
-        <v>254</v>
-      </c>
-      <c r="H5" t="s"/>
-      <c r="I5" t="s"/>
-      <c r="J5" t="s"/>
-      <c r="K5" t="s"/>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" t="s">
-        <v>111</v>
-      </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
-      <c r="D6" t="s"/>
-      <c r="E6" t="s"/>
-      <c r="F6" t="s"/>
-      <c r="G6" t="s">
-        <v>255</v>
-      </c>
-      <c r="H6" t="s"/>
-      <c r="I6" t="s"/>
-      <c r="J6" t="s"/>
-      <c r="K6" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" t="s">
-        <v>114</v>
-      </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
-      <c r="D7" t="s">
-        <v>256</v>
-      </c>
-      <c r="E7" t="s"/>
-      <c r="F7" t="s"/>
-      <c r="G7" t="s"/>
-      <c r="H7" t="s"/>
-      <c r="I7" t="s"/>
-      <c r="J7" t="s"/>
-      <c r="K7" t="s"/>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" t="s">
-        <v>116</v>
-      </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
-      <c r="D8" t="s"/>
+      <c r="B8" t="s">
+        <v>366</v>
+      </c>
+      <c r="C8" t="s">
+        <v>314</v>
+      </c>
+      <c r="D8" t="s">
+        <v>367</v>
+      </c>
       <c r="E8" t="s">
-        <v>194</v>
+        <v>368</v>
       </c>
       <c r="F8" t="s">
-        <v>194</v>
-      </c>
-      <c r="G8" t="s"/>
-      <c r="H8" t="s"/>
-      <c r="I8" t="s"/>
-      <c r="J8" t="s"/>
+        <v>369</v>
+      </c>
+      <c r="G8" t="s">
+        <v>370</v>
+      </c>
+      <c r="H8" t="s">
+        <v>371</v>
+      </c>
+      <c r="I8" t="s">
+        <v>372</v>
+      </c>
+      <c r="J8" t="s">
+        <v>373</v>
+      </c>
       <c r="K8" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>143</v>
+      </c>
+      <c r="B9" t="s">
+        <v>374</v>
+      </c>
+      <c r="D9" t="s">
+        <v>181</v>
+      </c>
+      <c r="E9" t="s">
+        <v>375</v>
+      </c>
+      <c r="F9" t="s">
+        <v>376</v>
+      </c>
+      <c r="G9" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>152</v>
+      </c>
+      <c r="G10" t="s">
+        <v>378</v>
+      </c>
+      <c r="K10" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>155</v>
+      </c>
+      <c r="D11" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>157</v>
+      </c>
+      <c r="E12" t="s">
+        <v>279</v>
+      </c>
+      <c r="F12" t="s">
+        <v>279</v>
+      </c>
+      <c r="K12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
-      <c r="A9" t="s">
-        <v>117</v>
-      </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
-      <c r="D9" t="s"/>
-      <c r="E9" t="s">
-        <v>257</v>
-      </c>
-      <c r="F9" t="s">
-        <v>257</v>
-      </c>
-      <c r="G9" t="s"/>
-      <c r="H9" t="s"/>
-      <c r="I9" t="s"/>
-      <c r="J9" t="s"/>
-      <c r="K9" t="s"/>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>158</v>
+      </c>
+      <c r="E13" t="s">
+        <v>380</v>
+      </c>
+      <c r="F13" t="s">
+        <v>380</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="8"/>
+    <col min="1" max="1" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
-      <c r="A5" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>117</v>
+        <v>143</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>158</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:K9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="8"/>
-    <col customWidth="1" max="2" min="2" width="107"/>
-    <col customWidth="1" max="3" min="3" width="88"/>
-    <col customWidth="1" max="4" min="4" width="122"/>
-    <col customWidth="1" max="5" min="5" width="552"/>
-    <col customWidth="1" max="6" min="6" width="1783"/>
-    <col customWidth="1" max="7" min="7" width="681"/>
-    <col customWidth="1" max="8" min="8" width="88"/>
-    <col customWidth="1" max="9" min="9" width="88"/>
-    <col customWidth="1" max="10" min="10" width="88"/>
-    <col customWidth="1" max="11" min="11" width="103"/>
+    <col min="1" max="1" width="17" customWidth="1"/>
+    <col min="2" max="2" width="107" customWidth="1"/>
+    <col min="3" max="3" width="88" customWidth="1"/>
+    <col min="4" max="4" width="122" customWidth="1"/>
+    <col min="5" max="5" width="552" customWidth="1"/>
+    <col min="6" max="6" width="1783" customWidth="1"/>
+    <col min="7" max="7" width="681" customWidth="1"/>
+    <col min="8" max="10" width="88" customWidth="1"/>
+    <col min="11" max="11" width="103" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="B1" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="C1" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="D1" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="E1" t="s">
-        <v>171</v>
+        <v>243</v>
       </c>
       <c r="F1" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="G1" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="H1" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="I1" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="J1" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="K1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="B2" t="s">
-        <v>258</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>259</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>260</v>
+        <v>18</v>
       </c>
       <c r="E2" t="s">
-        <v>261</v>
+        <v>18</v>
       </c>
       <c r="F2" t="s">
-        <v>262</v>
+        <v>18</v>
       </c>
       <c r="G2" t="s">
-        <v>263</v>
+        <v>18</v>
       </c>
       <c r="H2" t="s">
-        <v>264</v>
+        <v>18</v>
       </c>
       <c r="I2" t="s">
-        <v>265</v>
+        <v>18</v>
       </c>
       <c r="J2" t="s">
-        <v>266</v>
+        <v>18</v>
       </c>
       <c r="K2" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>44</v>
+        <v>83</v>
       </c>
       <c r="B3" t="s">
-        <v>268</v>
+        <v>381</v>
       </c>
       <c r="C3" t="s">
-        <v>269</v>
+        <v>381</v>
       </c>
       <c r="D3" t="s">
-        <v>270</v>
+        <v>381</v>
       </c>
       <c r="E3" t="s">
-        <v>271</v>
+        <v>381</v>
       </c>
       <c r="F3" t="s">
-        <v>272</v>
+        <v>381</v>
       </c>
       <c r="G3" t="s">
-        <v>273</v>
+        <v>381</v>
       </c>
       <c r="H3" t="s">
-        <v>274</v>
+        <v>381</v>
       </c>
       <c r="I3" t="s">
-        <v>275</v>
+        <v>381</v>
       </c>
       <c r="J3" t="s">
-        <v>276</v>
+        <v>381</v>
       </c>
       <c r="K3" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B4" t="s">
+        <v>382</v>
+      </c>
+      <c r="C4" t="s">
+        <v>383</v>
+      </c>
+      <c r="D4" t="s">
+        <v>384</v>
+      </c>
+      <c r="E4" t="s">
+        <v>385</v>
+      </c>
+      <c r="F4" t="s">
+        <v>386</v>
+      </c>
+      <c r="G4" t="s">
+        <v>387</v>
+      </c>
+      <c r="H4" t="s">
+        <v>388</v>
+      </c>
+      <c r="I4" t="s">
+        <v>389</v>
+      </c>
+      <c r="J4" t="s">
+        <v>390</v>
+      </c>
+      <c r="K4" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B5" t="s">
+        <v>392</v>
+      </c>
+      <c r="C5" t="s">
+        <v>393</v>
+      </c>
+      <c r="D5" t="s">
+        <v>394</v>
+      </c>
+      <c r="E5" t="s">
+        <v>395</v>
+      </c>
+      <c r="F5" t="s">
+        <v>396</v>
+      </c>
+      <c r="G5" t="s">
+        <v>397</v>
+      </c>
+      <c r="H5" t="s">
+        <v>398</v>
+      </c>
+      <c r="I5" t="s">
+        <v>399</v>
+      </c>
+      <c r="J5" t="s">
+        <v>400</v>
+      </c>
+      <c r="K5" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>109</v>
+      </c>
+      <c r="B6" t="s">
+        <v>402</v>
+      </c>
+      <c r="C6" t="s">
+        <v>403</v>
+      </c>
+      <c r="D6" t="s">
+        <v>404</v>
+      </c>
+      <c r="E6" t="s">
+        <v>405</v>
+      </c>
+      <c r="F6" t="s">
+        <v>406</v>
+      </c>
+      <c r="G6" t="s">
+        <v>407</v>
+      </c>
+      <c r="H6" t="s">
+        <v>408</v>
+      </c>
+      <c r="I6" t="s">
+        <v>409</v>
+      </c>
+      <c r="J6" t="s">
+        <v>410</v>
+      </c>
+      <c r="K6" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>121</v>
+      </c>
+      <c r="B7" t="s">
+        <v>412</v>
+      </c>
+      <c r="C7" t="s">
+        <v>413</v>
+      </c>
+      <c r="D7" t="s">
+        <v>414</v>
+      </c>
+      <c r="E7" t="s">
+        <v>415</v>
+      </c>
+      <c r="F7" t="s">
+        <v>416</v>
+      </c>
+      <c r="G7" t="s">
+        <v>417</v>
+      </c>
+      <c r="H7" t="s">
+        <v>418</v>
+      </c>
+      <c r="I7" t="s">
+        <v>419</v>
+      </c>
+      <c r="J7" t="s">
+        <v>420</v>
+      </c>
+      <c r="K7" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>25</v>
       </c>
-      <c r="B4" t="s">
-        <v>278</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="B8" t="s">
+        <v>422</v>
+      </c>
+      <c r="C8" t="s">
+        <v>423</v>
+      </c>
+      <c r="D8" t="s">
+        <v>177</v>
+      </c>
+      <c r="E8" t="s">
+        <v>424</v>
+      </c>
+      <c r="F8" t="s">
+        <v>425</v>
+      </c>
+      <c r="G8" t="s">
+        <v>426</v>
+      </c>
+      <c r="H8" t="s">
+        <v>427</v>
+      </c>
+      <c r="I8" t="s">
+        <v>428</v>
+      </c>
+      <c r="J8" t="s">
+        <v>429</v>
+      </c>
+      <c r="K8" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>143</v>
+      </c>
+      <c r="B9" t="s">
+        <v>430</v>
+      </c>
+      <c r="D9" t="s">
+        <v>431</v>
+      </c>
+      <c r="E9" t="s">
+        <v>432</v>
+      </c>
+      <c r="F9" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>152</v>
+      </c>
+      <c r="G10" t="s">
+        <v>434</v>
+      </c>
+      <c r="K10" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>155</v>
+      </c>
+      <c r="D11" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>157</v>
+      </c>
+      <c r="E12" t="s">
         <v>279</v>
       </c>
-      <c r="D4" t="s">
-        <v>127</v>
-      </c>
-      <c r="E4" t="s">
-        <v>280</v>
-      </c>
-      <c r="F4" t="s">
-        <v>281</v>
-      </c>
-      <c r="G4" t="s">
-        <v>282</v>
-      </c>
-      <c r="H4" t="s">
-        <v>283</v>
-      </c>
-      <c r="I4" t="s">
-        <v>284</v>
-      </c>
-      <c r="J4" t="s">
-        <v>285</v>
-      </c>
-      <c r="K4" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" t="s">
-        <v>102</v>
-      </c>
-      <c r="B5" t="s">
-        <v>286</v>
-      </c>
-      <c r="C5" t="s"/>
-      <c r="D5" t="s">
-        <v>287</v>
-      </c>
-      <c r="E5" t="s">
-        <v>288</v>
-      </c>
-      <c r="F5" t="s">
-        <v>289</v>
-      </c>
-      <c r="G5" t="s"/>
-      <c r="H5" t="s"/>
-      <c r="I5" t="s"/>
-      <c r="J5" t="s"/>
-      <c r="K5" t="s"/>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" t="s">
-        <v>111</v>
-      </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
-      <c r="D6" t="s"/>
-      <c r="E6" t="s"/>
-      <c r="F6" t="s"/>
-      <c r="G6" t="s">
-        <v>290</v>
-      </c>
-      <c r="H6" t="s"/>
-      <c r="I6" t="s"/>
-      <c r="J6" t="s"/>
-      <c r="K6" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" t="s">
-        <v>114</v>
-      </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
-      <c r="D7" t="s">
-        <v>291</v>
-      </c>
-      <c r="E7" t="s"/>
-      <c r="F7" t="s"/>
-      <c r="G7" t="s"/>
-      <c r="H7" t="s"/>
-      <c r="I7" t="s"/>
-      <c r="J7" t="s"/>
-      <c r="K7" t="s"/>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" t="s">
-        <v>116</v>
-      </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
-      <c r="D8" t="s"/>
-      <c r="E8" t="s">
-        <v>194</v>
-      </c>
-      <c r="F8" t="s"/>
-      <c r="G8" t="s"/>
-      <c r="H8" t="s"/>
-      <c r="I8" t="s"/>
-      <c r="J8" t="s"/>
-      <c r="K8" t="s">
+      <c r="K12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
-      <c r="A9" t="s">
-        <v>117</v>
-      </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
-      <c r="D9" t="s"/>
-      <c r="E9" t="s">
-        <v>292</v>
-      </c>
-      <c r="F9" t="s"/>
-      <c r="G9" t="s"/>
-      <c r="H9" t="s"/>
-      <c r="I9" t="s"/>
-      <c r="J9" t="s"/>
-      <c r="K9" t="s"/>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>158</v>
+      </c>
+      <c r="E13" t="s">
+        <v>436</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="8"/>
+    <col min="1" max="1" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
-      <c r="A5" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>117</v>
+        <v>143</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>158</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:K9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="8"/>
-    <col customWidth="1" max="2" min="2" width="88"/>
-    <col customWidth="1" max="3" min="3" width="78"/>
-    <col customWidth="1" max="4" min="4" width="1156"/>
-    <col customWidth="1" max="5" min="5" width="539"/>
-    <col customWidth="1" max="6" min="6" width="1080"/>
-    <col customWidth="1" max="7" min="7" width="88"/>
-    <col customWidth="1" max="8" min="8" width="88"/>
-    <col customWidth="1" max="9" min="9" width="88"/>
-    <col customWidth="1" max="10" min="10" width="88"/>
-    <col customWidth="1" max="11" min="11" width="103"/>
+    <col min="1" max="1" width="17" customWidth="1"/>
+    <col min="2" max="2" width="88" customWidth="1"/>
+    <col min="3" max="3" width="81" customWidth="1"/>
+    <col min="4" max="4" width="1156" customWidth="1"/>
+    <col min="5" max="5" width="539" customWidth="1"/>
+    <col min="6" max="6" width="1080" customWidth="1"/>
+    <col min="7" max="10" width="88" customWidth="1"/>
+    <col min="11" max="11" width="103" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="B1" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="C1" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="D1" t="s">
-        <v>171</v>
+        <v>243</v>
       </c>
       <c r="E1" t="s">
-        <v>171</v>
+        <v>243</v>
       </c>
       <c r="F1" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="G1" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="H1" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="I1" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="J1" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="K1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="B2" t="s">
-        <v>293</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>294</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>295</v>
+        <v>20</v>
       </c>
       <c r="E2" t="s">
-        <v>296</v>
+        <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>297</v>
+        <v>20</v>
       </c>
       <c r="G2" t="s">
-        <v>298</v>
+        <v>20</v>
       </c>
       <c r="H2" t="s">
-        <v>299</v>
+        <v>20</v>
       </c>
       <c r="I2" t="s">
-        <v>300</v>
+        <v>20</v>
       </c>
       <c r="J2" t="s">
-        <v>301</v>
+        <v>20</v>
       </c>
       <c r="K2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>44</v>
+        <v>83</v>
       </c>
       <c r="B3" t="s">
-        <v>303</v>
+        <v>437</v>
       </c>
       <c r="C3" t="s">
-        <v>304</v>
+        <v>437</v>
       </c>
       <c r="D3" t="s">
-        <v>305</v>
+        <v>437</v>
       </c>
       <c r="E3" t="s">
-        <v>306</v>
+        <v>437</v>
       </c>
       <c r="F3" t="s">
-        <v>307</v>
+        <v>437</v>
       </c>
       <c r="G3" t="s">
-        <v>308</v>
+        <v>437</v>
       </c>
       <c r="H3" t="s">
-        <v>309</v>
+        <v>437</v>
       </c>
       <c r="I3" t="s">
-        <v>310</v>
+        <v>437</v>
       </c>
       <c r="J3" t="s">
-        <v>311</v>
+        <v>437</v>
       </c>
       <c r="K3" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B4" t="s">
+        <v>438</v>
+      </c>
+      <c r="C4" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4" t="s">
+        <v>440</v>
+      </c>
+      <c r="E4" t="s">
+        <v>441</v>
+      </c>
+      <c r="F4" t="s">
+        <v>442</v>
+      </c>
+      <c r="G4" t="s">
+        <v>443</v>
+      </c>
+      <c r="H4" t="s">
+        <v>444</v>
+      </c>
+      <c r="I4" t="s">
+        <v>445</v>
+      </c>
+      <c r="J4" t="s">
+        <v>446</v>
+      </c>
+      <c r="K4" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B5" t="s">
+        <v>448</v>
+      </c>
+      <c r="C5" t="s">
+        <v>449</v>
+      </c>
+      <c r="D5" t="s">
+        <v>450</v>
+      </c>
+      <c r="E5" t="s">
+        <v>451</v>
+      </c>
+      <c r="F5" t="s">
+        <v>452</v>
+      </c>
+      <c r="G5" t="s">
+        <v>453</v>
+      </c>
+      <c r="H5" t="s">
+        <v>454</v>
+      </c>
+      <c r="I5" t="s">
+        <v>455</v>
+      </c>
+      <c r="J5" t="s">
+        <v>456</v>
+      </c>
+      <c r="K5" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>109</v>
+      </c>
+      <c r="B6" t="s">
+        <v>458</v>
+      </c>
+      <c r="C6" t="s">
+        <v>459</v>
+      </c>
+      <c r="D6" t="s">
+        <v>460</v>
+      </c>
+      <c r="E6" t="s">
+        <v>461</v>
+      </c>
+      <c r="F6" t="s">
+        <v>462</v>
+      </c>
+      <c r="G6" t="s">
+        <v>463</v>
+      </c>
+      <c r="H6" t="s">
+        <v>464</v>
+      </c>
+      <c r="I6" t="s">
+        <v>465</v>
+      </c>
+      <c r="J6" t="s">
+        <v>466</v>
+      </c>
+      <c r="K6" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>121</v>
+      </c>
+      <c r="B7" t="s">
+        <v>468</v>
+      </c>
+      <c r="C7" t="s">
+        <v>469</v>
+      </c>
+      <c r="D7" t="s">
+        <v>470</v>
+      </c>
+      <c r="E7" t="s">
+        <v>471</v>
+      </c>
+      <c r="F7" t="s">
+        <v>472</v>
+      </c>
+      <c r="G7" t="s">
+        <v>473</v>
+      </c>
+      <c r="H7" t="s">
+        <v>474</v>
+      </c>
+      <c r="I7" t="s">
+        <v>475</v>
+      </c>
+      <c r="J7" t="s">
+        <v>476</v>
+      </c>
+      <c r="K7" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>25</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B8" t="s">
+        <v>423</v>
+      </c>
+      <c r="C8" t="s">
+        <v>177</v>
+      </c>
+      <c r="D8" t="s">
+        <v>478</v>
+      </c>
+      <c r="E8" t="s">
+        <v>479</v>
+      </c>
+      <c r="F8" t="s">
+        <v>480</v>
+      </c>
+      <c r="G8" t="s">
+        <v>481</v>
+      </c>
+      <c r="H8" t="s">
+        <v>482</v>
+      </c>
+      <c r="I8" t="s">
+        <v>483</v>
+      </c>
+      <c r="J8" t="s">
+        <v>484</v>
+      </c>
+      <c r="K8" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>143</v>
+      </c>
+      <c r="C9" t="s">
+        <v>181</v>
+      </c>
+      <c r="D9" t="s">
+        <v>485</v>
+      </c>
+      <c r="E9" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>152</v>
+      </c>
+      <c r="F10" t="s">
+        <v>487</v>
+      </c>
+      <c r="K10" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>155</v>
+      </c>
+      <c r="C11" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>157</v>
+      </c>
+      <c r="D12" t="s">
         <v>279</v>
       </c>
-      <c r="C4" t="s">
-        <v>127</v>
-      </c>
-      <c r="D4" t="s">
-        <v>313</v>
-      </c>
-      <c r="E4" t="s">
-        <v>314</v>
-      </c>
-      <c r="F4" t="s">
-        <v>315</v>
-      </c>
-      <c r="G4" t="s">
-        <v>316</v>
-      </c>
-      <c r="H4" t="s">
-        <v>317</v>
-      </c>
-      <c r="I4" t="s">
-        <v>318</v>
-      </c>
-      <c r="J4" t="s">
-        <v>319</v>
-      </c>
-      <c r="K4" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" t="s">
-        <v>102</v>
-      </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s">
-        <v>131</v>
-      </c>
-      <c r="D5" t="s">
-        <v>320</v>
-      </c>
-      <c r="E5" t="s">
-        <v>321</v>
-      </c>
-      <c r="F5" t="s"/>
-      <c r="G5" t="s"/>
-      <c r="H5" t="s"/>
-      <c r="I5" t="s"/>
-      <c r="J5" t="s"/>
-      <c r="K5" t="s"/>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" t="s">
-        <v>111</v>
-      </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
-      <c r="D6" t="s"/>
-      <c r="E6" t="s"/>
-      <c r="F6" t="s">
-        <v>322</v>
-      </c>
-      <c r="G6" t="s"/>
-      <c r="H6" t="s"/>
-      <c r="I6" t="s"/>
-      <c r="J6" t="s"/>
-      <c r="K6" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" t="s">
-        <v>114</v>
-      </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s">
-        <v>323</v>
-      </c>
-      <c r="D7" t="s"/>
-      <c r="E7" t="s"/>
-      <c r="F7" t="s"/>
-      <c r="G7" t="s"/>
-      <c r="H7" t="s"/>
-      <c r="I7" t="s"/>
-      <c r="J7" t="s"/>
-      <c r="K7" t="s"/>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" t="s">
-        <v>116</v>
-      </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
-      <c r="D8" t="s">
-        <v>194</v>
-      </c>
-      <c r="E8" t="s">
-        <v>194</v>
-      </c>
-      <c r="F8" t="s"/>
-      <c r="G8" t="s"/>
-      <c r="H8" t="s"/>
-      <c r="I8" t="s"/>
-      <c r="J8" t="s"/>
-      <c r="K8" t="s">
+      <c r="E12" t="s">
+        <v>279</v>
+      </c>
+      <c r="K12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
-      <c r="A9" t="s">
-        <v>117</v>
-      </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
-      <c r="D9" t="s">
-        <v>324</v>
-      </c>
-      <c r="E9" t="s">
-        <v>324</v>
-      </c>
-      <c r="F9" t="s"/>
-      <c r="G9" t="s"/>
-      <c r="H9" t="s"/>
-      <c r="I9" t="s"/>
-      <c r="J9" t="s"/>
-      <c r="K9" t="s"/>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>158</v>
+      </c>
+      <c r="D13" t="s">
+        <v>489</v>
+      </c>
+      <c r="E13" t="s">
+        <v>489</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="8"/>
-    <col customWidth="1" max="2" min="2" width="88"/>
-    <col customWidth="1" max="3" min="3" width="78"/>
-    <col customWidth="1" max="4" min="4" width="1253"/>
-    <col customWidth="1" max="5" min="5" width="552"/>
-    <col customWidth="1" max="6" min="6" width="103"/>
+    <col min="1" max="1" width="17" customWidth="1"/>
+    <col min="2" max="2" width="88" customWidth="1"/>
+    <col min="3" max="3" width="81" customWidth="1"/>
+    <col min="4" max="4" width="1253" customWidth="1"/>
+    <col min="5" max="5" width="552" customWidth="1"/>
+    <col min="6" max="6" width="103" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="B1" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="C1" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="D1" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="E1" t="s">
-        <v>171</v>
+        <v>243</v>
       </c>
       <c r="F1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="B2" t="s">
-        <v>325</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>326</v>
+        <v>21</v>
       </c>
       <c r="D2" t="s">
-        <v>327</v>
+        <v>21</v>
       </c>
       <c r="E2" t="s">
-        <v>328</v>
+        <v>21</v>
       </c>
       <c r="F2" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>44</v>
+        <v>83</v>
       </c>
       <c r="B3" t="s">
-        <v>330</v>
+        <v>490</v>
       </c>
       <c r="C3" t="s">
-        <v>331</v>
+        <v>490</v>
       </c>
       <c r="D3" t="s">
-        <v>332</v>
+        <v>490</v>
       </c>
       <c r="E3" t="s">
-        <v>333</v>
+        <v>490</v>
       </c>
       <c r="F3" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B4" t="s">
+        <v>491</v>
+      </c>
+      <c r="C4" t="s">
+        <v>492</v>
+      </c>
+      <c r="D4" t="s">
+        <v>493</v>
+      </c>
+      <c r="E4" t="s">
+        <v>494</v>
+      </c>
+      <c r="F4" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B5" t="s">
+        <v>496</v>
+      </c>
+      <c r="C5" t="s">
+        <v>497</v>
+      </c>
+      <c r="D5" t="s">
+        <v>498</v>
+      </c>
+      <c r="E5" t="s">
+        <v>499</v>
+      </c>
+      <c r="F5" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>109</v>
+      </c>
+      <c r="B6" t="s">
+        <v>501</v>
+      </c>
+      <c r="C6" t="s">
+        <v>502</v>
+      </c>
+      <c r="D6" t="s">
+        <v>503</v>
+      </c>
+      <c r="E6" t="s">
+        <v>504</v>
+      </c>
+      <c r="F6" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>121</v>
+      </c>
+      <c r="B7" t="s">
+        <v>506</v>
+      </c>
+      <c r="C7" t="s">
+        <v>507</v>
+      </c>
+      <c r="D7" t="s">
+        <v>508</v>
+      </c>
+      <c r="E7" t="s">
+        <v>509</v>
+      </c>
+      <c r="F7" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>25</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B8" t="s">
+        <v>423</v>
+      </c>
+      <c r="C8" t="s">
+        <v>511</v>
+      </c>
+      <c r="D8" t="s">
+        <v>512</v>
+      </c>
+      <c r="E8" t="s">
+        <v>513</v>
+      </c>
+      <c r="F8" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>143</v>
+      </c>
+      <c r="C9" t="s">
+        <v>181</v>
+      </c>
+      <c r="D9" t="s">
+        <v>514</v>
+      </c>
+      <c r="E9" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>152</v>
+      </c>
+      <c r="F10" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>155</v>
+      </c>
+      <c r="C11" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>157</v>
+      </c>
+      <c r="E12" t="s">
         <v>279</v>
       </c>
-      <c r="C4" t="s">
-        <v>335</v>
-      </c>
-      <c r="D4" t="s">
-        <v>336</v>
-      </c>
-      <c r="E4" t="s">
-        <v>337</v>
-      </c>
-      <c r="F4" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
-        <v>102</v>
-      </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s">
-        <v>131</v>
-      </c>
-      <c r="D5" t="s">
-        <v>338</v>
-      </c>
-      <c r="E5" t="s">
-        <v>339</v>
-      </c>
-      <c r="F5" t="s"/>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" t="s">
-        <v>111</v>
-      </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
-      <c r="D6" t="s"/>
-      <c r="E6" t="s"/>
-      <c r="F6" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" t="s">
-        <v>114</v>
-      </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s">
-        <v>340</v>
-      </c>
-      <c r="D7" t="s"/>
-      <c r="E7" t="s"/>
-      <c r="F7" t="s"/>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" t="s">
-        <v>116</v>
-      </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
-      <c r="D8" t="s"/>
-      <c r="E8" t="s">
-        <v>194</v>
-      </c>
-      <c r="F8" t="s">
+      <c r="F12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
-      <c r="A9" t="s">
-        <v>117</v>
-      </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
-      <c r="D9" t="s"/>
-      <c r="E9" t="s">
-        <v>341</v>
-      </c>
-      <c r="F9" t="s"/>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>158</v>
+      </c>
+      <c r="E13" t="s">
+        <v>517</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="8"/>
-    <col customWidth="1" max="2" min="2" width="132"/>
-    <col customWidth="1" max="3" min="3" width="88"/>
-    <col customWidth="1" max="4" min="4" width="88"/>
-    <col customWidth="1" max="5" min="5" width="78"/>
-    <col customWidth="1" max="6" min="6" width="1475"/>
-    <col customWidth="1" max="7" min="7" width="544"/>
-    <col customWidth="1" max="8" min="8" width="630"/>
-    <col customWidth="1" max="9" min="9" width="103"/>
+    <col min="1" max="1" width="17" customWidth="1"/>
+    <col min="2" max="2" width="132" customWidth="1"/>
+    <col min="3" max="4" width="88" customWidth="1"/>
+    <col min="5" max="5" width="81" customWidth="1"/>
+    <col min="6" max="6" width="1475" customWidth="1"/>
+    <col min="7" max="7" width="544" customWidth="1"/>
+    <col min="8" max="8" width="630" customWidth="1"/>
+    <col min="9" max="9" width="103" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="B1" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="C1" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="D1" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="E1" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="F1" t="s">
-        <v>171</v>
+        <v>243</v>
       </c>
       <c r="G1" t="s">
-        <v>171</v>
+        <v>243</v>
       </c>
       <c r="H1" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="I1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="B2" t="s">
-        <v>342</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>343</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>344</v>
+        <v>22</v>
       </c>
       <c r="E2" t="s">
-        <v>345</v>
+        <v>22</v>
       </c>
       <c r="F2" t="s">
-        <v>346</v>
+        <v>22</v>
       </c>
       <c r="G2" t="s">
-        <v>347</v>
+        <v>22</v>
       </c>
       <c r="H2" t="s">
-        <v>348</v>
+        <v>22</v>
       </c>
       <c r="I2" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>44</v>
+        <v>83</v>
       </c>
       <c r="B3" t="s">
-        <v>350</v>
+        <v>518</v>
       </c>
       <c r="C3" t="s">
-        <v>351</v>
+        <v>518</v>
       </c>
       <c r="D3" t="s">
-        <v>352</v>
+        <v>518</v>
       </c>
       <c r="E3" t="s">
-        <v>353</v>
+        <v>518</v>
       </c>
       <c r="F3" t="s">
-        <v>354</v>
+        <v>518</v>
       </c>
       <c r="G3" t="s">
-        <v>355</v>
+        <v>518</v>
       </c>
       <c r="H3" t="s">
-        <v>356</v>
+        <v>518</v>
       </c>
       <c r="I3" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B4" t="s">
+        <v>519</v>
+      </c>
+      <c r="C4" t="s">
+        <v>520</v>
+      </c>
+      <c r="D4" t="s">
+        <v>521</v>
+      </c>
+      <c r="E4" t="s">
+        <v>522</v>
+      </c>
+      <c r="F4" t="s">
+        <v>523</v>
+      </c>
+      <c r="G4" t="s">
+        <v>524</v>
+      </c>
+      <c r="H4" t="s">
+        <v>525</v>
+      </c>
+      <c r="I4" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B5" t="s">
+        <v>527</v>
+      </c>
+      <c r="C5" t="s">
+        <v>528</v>
+      </c>
+      <c r="D5" t="s">
+        <v>529</v>
+      </c>
+      <c r="E5" t="s">
+        <v>530</v>
+      </c>
+      <c r="F5" t="s">
+        <v>531</v>
+      </c>
+      <c r="G5" t="s">
+        <v>532</v>
+      </c>
+      <c r="H5" t="s">
+        <v>533</v>
+      </c>
+      <c r="I5" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>109</v>
+      </c>
+      <c r="B6" t="s">
+        <v>535</v>
+      </c>
+      <c r="C6" t="s">
+        <v>536</v>
+      </c>
+      <c r="D6" t="s">
+        <v>537</v>
+      </c>
+      <c r="E6" t="s">
+        <v>538</v>
+      </c>
+      <c r="F6" t="s">
+        <v>539</v>
+      </c>
+      <c r="G6" t="s">
+        <v>540</v>
+      </c>
+      <c r="H6" t="s">
+        <v>541</v>
+      </c>
+      <c r="I6" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>121</v>
+      </c>
+      <c r="B7" t="s">
+        <v>543</v>
+      </c>
+      <c r="C7" t="s">
+        <v>544</v>
+      </c>
+      <c r="D7" t="s">
+        <v>545</v>
+      </c>
+      <c r="E7" t="s">
+        <v>546</v>
+      </c>
+      <c r="F7" t="s">
+        <v>547</v>
+      </c>
+      <c r="G7" t="s">
+        <v>548</v>
+      </c>
+      <c r="H7" t="s">
+        <v>549</v>
+      </c>
+      <c r="I7" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>25</v>
       </c>
-      <c r="B4" t="s">
-        <v>358</v>
-      </c>
-      <c r="C4" t="s">
-        <v>359</v>
-      </c>
-      <c r="D4" t="s">
-        <v>360</v>
-      </c>
-      <c r="E4" t="s">
-        <v>361</v>
-      </c>
-      <c r="F4" t="s">
-        <v>362</v>
-      </c>
-      <c r="G4" t="s">
-        <v>363</v>
-      </c>
-      <c r="H4" t="s">
-        <v>364</v>
-      </c>
-      <c r="I4" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" t="s">
-        <v>102</v>
-      </c>
-      <c r="B5" t="s">
-        <v>365</v>
-      </c>
-      <c r="C5" t="s"/>
-      <c r="D5" t="s">
-        <v>366</v>
-      </c>
-      <c r="E5" t="s">
-        <v>131</v>
-      </c>
-      <c r="F5" t="s">
-        <v>367</v>
-      </c>
-      <c r="G5" t="s">
-        <v>368</v>
-      </c>
-      <c r="H5" t="s"/>
-      <c r="I5" t="s"/>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" t="s">
-        <v>111</v>
-      </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
-      <c r="D6" t="s"/>
-      <c r="E6" t="s"/>
-      <c r="F6" t="s"/>
-      <c r="G6" t="s"/>
-      <c r="H6" t="s">
-        <v>369</v>
-      </c>
-      <c r="I6" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" t="s">
-        <v>114</v>
-      </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
-      <c r="D7" t="s"/>
-      <c r="E7" t="s">
-        <v>370</v>
-      </c>
-      <c r="F7" t="s"/>
-      <c r="G7" t="s"/>
-      <c r="H7" t="s"/>
-      <c r="I7" t="s"/>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" t="s">
-        <v>116</v>
-      </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
-      <c r="D8" t="s"/>
-      <c r="E8" t="s"/>
+      <c r="B8" t="s">
+        <v>551</v>
+      </c>
+      <c r="C8" t="s">
+        <v>552</v>
+      </c>
+      <c r="D8" t="s">
+        <v>553</v>
+      </c>
+      <c r="E8" t="s">
+        <v>554</v>
+      </c>
       <c r="F8" t="s">
-        <v>194</v>
+        <v>555</v>
       </c>
       <c r="G8" t="s">
-        <v>194</v>
-      </c>
-      <c r="H8" t="s"/>
+        <v>556</v>
+      </c>
+      <c r="H8" t="s">
+        <v>557</v>
+      </c>
       <c r="I8" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>143</v>
+      </c>
+      <c r="B9" t="s">
+        <v>558</v>
+      </c>
+      <c r="D9" t="s">
+        <v>559</v>
+      </c>
+      <c r="E9" t="s">
+        <v>181</v>
+      </c>
+      <c r="F9" t="s">
+        <v>560</v>
+      </c>
+      <c r="G9" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>152</v>
+      </c>
+      <c r="H10" t="s">
+        <v>562</v>
+      </c>
+      <c r="I10" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>155</v>
+      </c>
+      <c r="E11" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>157</v>
+      </c>
+      <c r="F12" t="s">
+        <v>279</v>
+      </c>
+      <c r="G12" t="s">
+        <v>279</v>
+      </c>
+      <c r="I12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
-      <c r="A9" t="s">
-        <v>117</v>
-      </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
-      <c r="D9" t="s"/>
-      <c r="E9" t="s"/>
-      <c r="F9" t="s">
-        <v>371</v>
-      </c>
-      <c r="G9" t="s">
-        <v>371</v>
-      </c>
-      <c r="H9" t="s"/>
-      <c r="I9" t="s"/>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>158</v>
+      </c>
+      <c r="F13" t="s">
+        <v>564</v>
+      </c>
+      <c r="G13" t="s">
+        <v>564</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="8"/>
-    <col customWidth="1" max="2" min="2" width="88"/>
-    <col customWidth="1" max="3" min="3" width="78"/>
-    <col customWidth="1" max="4" min="4" width="801"/>
-    <col customWidth="1" max="5" min="5" width="103"/>
+    <col min="1" max="1" width="17" customWidth="1"/>
+    <col min="2" max="2" width="88" customWidth="1"/>
+    <col min="3" max="3" width="81" customWidth="1"/>
+    <col min="4" max="4" width="801" customWidth="1"/>
+    <col min="5" max="5" width="103" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="B1" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="C1" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="D1" t="s">
-        <v>171</v>
+        <v>243</v>
       </c>
       <c r="E1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="B2" t="s">
-        <v>372</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>373</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>374</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>44</v>
+        <v>83</v>
       </c>
       <c r="B3" t="s">
-        <v>376</v>
+        <v>565</v>
       </c>
       <c r="C3" t="s">
-        <v>377</v>
+        <v>565</v>
       </c>
       <c r="D3" t="s">
-        <v>378</v>
+        <v>565</v>
       </c>
       <c r="E3" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B4" t="s">
+        <v>566</v>
+      </c>
+      <c r="C4" t="s">
+        <v>567</v>
+      </c>
+      <c r="D4" t="s">
+        <v>568</v>
+      </c>
+      <c r="E4" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B5" t="s">
+        <v>570</v>
+      </c>
+      <c r="C5" t="s">
+        <v>571</v>
+      </c>
+      <c r="D5" t="s">
+        <v>572</v>
+      </c>
+      <c r="E5" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>109</v>
+      </c>
+      <c r="B6" t="s">
+        <v>574</v>
+      </c>
+      <c r="C6" t="s">
+        <v>575</v>
+      </c>
+      <c r="D6" t="s">
+        <v>576</v>
+      </c>
+      <c r="E6" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>121</v>
+      </c>
+      <c r="B7" t="s">
+        <v>578</v>
+      </c>
+      <c r="C7" t="s">
+        <v>579</v>
+      </c>
+      <c r="D7" t="s">
+        <v>580</v>
+      </c>
+      <c r="E7" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>25</v>
       </c>
-      <c r="B4" t="s">
-        <v>380</v>
-      </c>
-      <c r="C4" t="s">
-        <v>127</v>
-      </c>
-      <c r="D4" t="s">
-        <v>381</v>
-      </c>
-      <c r="E4" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>102</v>
-      </c>
-      <c r="B5" t="s">
-        <v>382</v>
-      </c>
-      <c r="C5" t="s"/>
-      <c r="D5" t="s">
-        <v>383</v>
-      </c>
-      <c r="E5" t="s"/>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
-        <v>111</v>
-      </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
-      <c r="D6" t="s"/>
-      <c r="E6" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" t="s">
-        <v>114</v>
-      </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s">
-        <v>384</v>
-      </c>
-      <c r="D7" t="s"/>
-      <c r="E7" t="s"/>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" t="s">
-        <v>116</v>
-      </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="s">
+        <v>582</v>
+      </c>
+      <c r="C8" t="s">
+        <v>177</v>
+      </c>
       <c r="D8" t="s">
-        <v>194</v>
+        <v>583</v>
       </c>
       <c r="E8" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>143</v>
+      </c>
+      <c r="B9" t="s">
+        <v>584</v>
+      </c>
+      <c r="D9" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>152</v>
+      </c>
+      <c r="E10" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>155</v>
+      </c>
+      <c r="C11" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>157</v>
+      </c>
+      <c r="D12" t="s">
+        <v>279</v>
+      </c>
+      <c r="E12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
-      <c r="A9" t="s">
-        <v>117</v>
-      </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
-      <c r="D9" t="s">
-        <v>385</v>
-      </c>
-      <c r="E9" t="s"/>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>158</v>
+      </c>
+      <c r="D13" t="s">
+        <v>587</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="8"/>
-    <col customWidth="1" max="2" min="2" width="88"/>
-    <col customWidth="1" max="3" min="3" width="201"/>
-    <col customWidth="1" max="4" min="4" width="440"/>
-    <col customWidth="1" max="5" min="5" width="284"/>
+    <col min="1" max="1" width="17" customWidth="1"/>
+    <col min="2" max="2" width="88" customWidth="1"/>
+    <col min="3" max="3" width="201" customWidth="1"/>
+    <col min="4" max="4" width="440" customWidth="1"/>
+    <col min="5" max="5" width="284" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="B1" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="C1" t="s">
-        <v>386</v>
+        <v>588</v>
       </c>
       <c r="D1" t="s">
-        <v>171</v>
+        <v>243</v>
       </c>
       <c r="E1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="B2" t="s">
-        <v>387</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>388</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>389</v>
+        <v>24</v>
       </c>
       <c r="E2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>44</v>
+        <v>83</v>
       </c>
       <c r="B3" t="s">
-        <v>391</v>
+        <v>589</v>
       </c>
       <c r="C3" t="s">
-        <v>392</v>
+        <v>589</v>
       </c>
       <c r="D3" t="s">
-        <v>393</v>
+        <v>589</v>
       </c>
       <c r="E3" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B4" t="s">
+        <v>590</v>
+      </c>
+      <c r="C4" t="s">
+        <v>591</v>
+      </c>
+      <c r="D4" t="s">
+        <v>592</v>
+      </c>
+      <c r="E4" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B5" t="s">
+        <v>594</v>
+      </c>
+      <c r="C5" t="s">
+        <v>595</v>
+      </c>
+      <c r="D5" t="s">
+        <v>596</v>
+      </c>
+      <c r="E5" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>109</v>
+      </c>
+      <c r="B6" t="s">
+        <v>598</v>
+      </c>
+      <c r="C6" t="s">
+        <v>599</v>
+      </c>
+      <c r="D6" t="s">
+        <v>600</v>
+      </c>
+      <c r="E6" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>121</v>
+      </c>
+      <c r="B7" t="s">
+        <v>602</v>
+      </c>
+      <c r="C7" t="s">
+        <v>603</v>
+      </c>
+      <c r="D7" t="s">
+        <v>604</v>
+      </c>
+      <c r="E7" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>25</v>
       </c>
-      <c r="B4" t="s">
-        <v>395</v>
-      </c>
-      <c r="C4" t="s">
-        <v>396</v>
-      </c>
-      <c r="D4" t="s">
-        <v>397</v>
-      </c>
-      <c r="E4" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>102</v>
-      </c>
-      <c r="B5" t="s">
-        <v>399</v>
-      </c>
-      <c r="C5" t="s">
-        <v>400</v>
-      </c>
-      <c r="D5" t="s">
-        <v>401</v>
-      </c>
-      <c r="E5" t="s"/>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
-        <v>111</v>
-      </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
-      <c r="D6" t="s"/>
-      <c r="E6" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" t="s">
-        <v>114</v>
-      </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
-      <c r="D7" t="s"/>
-      <c r="E7" t="s"/>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" t="s">
-        <v>116</v>
-      </c>
-      <c r="B8" t="s"/>
+      <c r="B8" t="s">
+        <v>606</v>
+      </c>
       <c r="C8" t="s">
-        <v>403</v>
+        <v>607</v>
       </c>
       <c r="D8" t="s">
-        <v>194</v>
+        <v>608</v>
       </c>
       <c r="E8" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>143</v>
+      </c>
+      <c r="B9" t="s">
+        <v>610</v>
+      </c>
+      <c r="C9" t="s">
+        <v>611</v>
+      </c>
+      <c r="D9" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>152</v>
+      </c>
+      <c r="E10" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>157</v>
+      </c>
+      <c r="C12" t="s">
+        <v>614</v>
+      </c>
+      <c r="D12" t="s">
+        <v>279</v>
+      </c>
+      <c r="E12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
-      <c r="A9" t="s">
-        <v>117</v>
-      </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
-      <c r="D9" t="s">
-        <v>404</v>
-      </c>
-      <c r="E9" t="s"/>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>158</v>
+      </c>
+      <c r="D13" t="s">
+        <v>615</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:Q4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="8"/>
-    <col customWidth="1" max="2" min="2" width="1627"/>
-    <col customWidth="1" max="3" min="3" width="119"/>
-    <col customWidth="1" max="4" min="4" width="1095"/>
-    <col customWidth="1" max="5" min="5" width="1149"/>
-    <col customWidth="1" max="6" min="6" width="1180"/>
-    <col customWidth="1" max="7" min="7" width="1486"/>
-    <col customWidth="1" max="8" min="8" width="1123"/>
-    <col customWidth="1" max="9" min="9" width="1660"/>
-    <col customWidth="1" max="10" min="10" width="491"/>
-    <col customWidth="1" max="11" min="11" width="1498"/>
-    <col customWidth="1" max="12" min="12" width="573"/>
-    <col customWidth="1" max="13" min="13" width="1184"/>
-    <col customWidth="1" max="14" min="14" width="1497"/>
-    <col customWidth="1" max="15" min="15" width="1239"/>
-    <col customWidth="1" max="16" min="16" width="567"/>
-    <col customWidth="1" max="17" min="17" width="840"/>
+    <col min="1" max="1" width="10" customWidth="1"/>
+    <col min="2" max="2" width="1627" customWidth="1"/>
+    <col min="3" max="3" width="119" customWidth="1"/>
+    <col min="4" max="4" width="1095" customWidth="1"/>
+    <col min="5" max="5" width="1149" customWidth="1"/>
+    <col min="6" max="6" width="1180" customWidth="1"/>
+    <col min="7" max="7" width="1486" customWidth="1"/>
+    <col min="8" max="8" width="1123" customWidth="1"/>
+    <col min="9" max="9" width="1660" customWidth="1"/>
+    <col min="10" max="10" width="491" customWidth="1"/>
+    <col min="11" max="11" width="1498" customWidth="1"/>
+    <col min="12" max="12" width="573" customWidth="1"/>
+    <col min="13" max="13" width="1184" customWidth="1"/>
+    <col min="14" max="14" width="1497" customWidth="1"/>
+    <col min="15" max="15" width="1239" customWidth="1"/>
+    <col min="16" max="16" width="567" customWidth="1"/>
+    <col min="17" max="17" width="840" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -3842,30 +5031,15 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>25</v>
       </c>
       <c r="B2" t="s">
         <v>26</v>
       </c>
-      <c r="C2" t="s"/>
-      <c r="D2" t="s"/>
-      <c r="E2" t="s"/>
-      <c r="F2" t="s"/>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
-      <c r="J2" t="s"/>
-      <c r="K2" t="s"/>
-      <c r="L2" t="s"/>
-      <c r="M2" t="s"/>
-      <c r="N2" t="s"/>
-      <c r="O2" t="s"/>
-      <c r="P2" t="s"/>
-      <c r="Q2" t="s"/>
-    </row>
-    <row r="3" spans="1:17">
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>27</v>
       </c>
@@ -3918,7 +5092,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>44</v>
       </c>
@@ -3971,1276 +5145,1738 @@
         <v>60</v>
       </c>
     </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E5" t="s">
+        <v>64</v>
+      </c>
+      <c r="F5" t="s">
+        <v>65</v>
+      </c>
+      <c r="G5" t="s">
+        <v>66</v>
+      </c>
+      <c r="H5" t="s">
+        <v>67</v>
+      </c>
+      <c r="I5" t="s">
+        <v>68</v>
+      </c>
+      <c r="K5" t="s">
+        <v>69</v>
+      </c>
+      <c r="M5" t="s">
+        <v>70</v>
+      </c>
+      <c r="N5" t="s">
+        <v>71</v>
+      </c>
+      <c r="O5" t="s">
+        <v>72</v>
+      </c>
+      <c r="P5" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>74</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:L9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="8"/>
-    <col customWidth="1" max="2" min="2" width="5818"/>
-    <col customWidth="1" max="3" min="3" width="82"/>
-    <col customWidth="1" max="4" min="4" width="88"/>
-    <col customWidth="1" max="5" min="5" width="78"/>
-    <col customWidth="1" max="6" min="6" width="2066"/>
-    <col customWidth="1" max="7" min="7" width="795"/>
-    <col customWidth="1" max="8" min="8" width="504"/>
-    <col customWidth="1" max="9" min="9" width="84"/>
-    <col customWidth="1" max="10" min="10" width="88"/>
-    <col customWidth="1" max="11" min="11" width="88"/>
-    <col customWidth="1" max="12" min="12" width="88"/>
+    <col min="1" max="1" width="17" customWidth="1"/>
+    <col min="2" max="2" width="5818" customWidth="1"/>
+    <col min="3" max="3" width="83" customWidth="1"/>
+    <col min="4" max="4" width="88" customWidth="1"/>
+    <col min="5" max="5" width="81" customWidth="1"/>
+    <col min="6" max="6" width="2066" customWidth="1"/>
+    <col min="7" max="7" width="795" customWidth="1"/>
+    <col min="8" max="8" width="504" customWidth="1"/>
+    <col min="9" max="9" width="84" customWidth="1"/>
+    <col min="10" max="12" width="88" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="B1" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="C1" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="D1" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="E1" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="F1" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="G1" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="H1" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="I1" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="J1" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="K1" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="L1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B2" t="s">
-        <v>69</v>
+        <v>82</v>
+      </c>
+      <c r="B2" s="1">
+        <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>70</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>71</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>73</v>
+        <v>9</v>
       </c>
       <c r="G2" t="s">
-        <v>74</v>
+        <v>9</v>
       </c>
       <c r="H2" t="s">
-        <v>75</v>
+        <v>9</v>
       </c>
       <c r="I2" t="s">
-        <v>76</v>
+        <v>9</v>
       </c>
       <c r="J2" t="s">
-        <v>77</v>
+        <v>9</v>
       </c>
       <c r="K2" t="s">
-        <v>78</v>
+        <v>9</v>
       </c>
       <c r="L2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B3" t="s">
-        <v>80</v>
+        <v>83</v>
+      </c>
+      <c r="B3" s="1">
+        <v>101179</v>
       </c>
       <c r="C3" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F3" t="s">
         <v>84</v>
       </c>
       <c r="G3" t="s">
+        <v>84</v>
+      </c>
+      <c r="H3" t="s">
+        <v>84</v>
+      </c>
+      <c r="I3" t="s">
+        <v>84</v>
+      </c>
+      <c r="J3" t="s">
+        <v>84</v>
+      </c>
+      <c r="K3" t="s">
+        <v>84</v>
+      </c>
+      <c r="L3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>85</v>
       </c>
-      <c r="H3" t="s">
+      <c r="B4" t="s">
         <v>86</v>
       </c>
-      <c r="I3" t="s">
+      <c r="C4" t="s">
         <v>87</v>
       </c>
-      <c r="J3" t="s">
+      <c r="D4" t="s">
         <v>88</v>
       </c>
-      <c r="K3" t="s">
+      <c r="E4" t="s">
         <v>89</v>
       </c>
-      <c r="L3" t="s">
+      <c r="F4" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4" t="s">
+      <c r="G4" t="s">
+        <v>91</v>
+      </c>
+      <c r="H4" t="s">
+        <v>92</v>
+      </c>
+      <c r="I4" t="s">
+        <v>93</v>
+      </c>
+      <c r="J4" t="s">
+        <v>94</v>
+      </c>
+      <c r="K4" t="s">
+        <v>95</v>
+      </c>
+      <c r="L4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D5" t="s">
+        <v>100</v>
+      </c>
+      <c r="E5" t="s">
+        <v>101</v>
+      </c>
+      <c r="F5" t="s">
+        <v>102</v>
+      </c>
+      <c r="G5" t="s">
+        <v>103</v>
+      </c>
+      <c r="H5" t="s">
+        <v>104</v>
+      </c>
+      <c r="I5" t="s">
+        <v>105</v>
+      </c>
+      <c r="J5" t="s">
+        <v>106</v>
+      </c>
+      <c r="K5" t="s">
+        <v>107</v>
+      </c>
+      <c r="L5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>109</v>
+      </c>
+      <c r="B6" t="s">
+        <v>110</v>
+      </c>
+      <c r="C6" t="s">
+        <v>111</v>
+      </c>
+      <c r="D6" t="s">
+        <v>112</v>
+      </c>
+      <c r="E6" t="s">
+        <v>113</v>
+      </c>
+      <c r="F6" t="s">
+        <v>114</v>
+      </c>
+      <c r="G6" t="s">
+        <v>115</v>
+      </c>
+      <c r="H6" t="s">
+        <v>116</v>
+      </c>
+      <c r="I6" t="s">
+        <v>117</v>
+      </c>
+      <c r="J6" t="s">
+        <v>118</v>
+      </c>
+      <c r="K6" t="s">
+        <v>119</v>
+      </c>
+      <c r="L6" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>121</v>
+      </c>
+      <c r="B7" t="s">
+        <v>122</v>
+      </c>
+      <c r="C7" t="s">
+        <v>123</v>
+      </c>
+      <c r="D7" t="s">
+        <v>124</v>
+      </c>
+      <c r="E7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G7" t="s">
+        <v>127</v>
+      </c>
+      <c r="H7" t="s">
+        <v>128</v>
+      </c>
+      <c r="I7" t="s">
+        <v>129</v>
+      </c>
+      <c r="J7" t="s">
+        <v>130</v>
+      </c>
+      <c r="K7" t="s">
+        <v>131</v>
+      </c>
+      <c r="L7" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>25</v>
       </c>
-      <c r="B4" t="s">
-        <v>91</v>
-      </c>
-      <c r="C4" t="s">
-        <v>92</v>
-      </c>
-      <c r="D4" t="s">
-        <v>93</v>
-      </c>
-      <c r="E4" t="s">
-        <v>94</v>
-      </c>
-      <c r="F4" t="s">
-        <v>95</v>
-      </c>
-      <c r="G4" t="s">
-        <v>96</v>
-      </c>
-      <c r="H4" t="s">
-        <v>97</v>
-      </c>
-      <c r="I4" t="s">
-        <v>98</v>
-      </c>
-      <c r="J4" t="s">
-        <v>99</v>
-      </c>
-      <c r="K4" t="s">
-        <v>100</v>
-      </c>
-      <c r="L4" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5" t="s">
-        <v>102</v>
-      </c>
-      <c r="B5" t="s">
-        <v>103</v>
-      </c>
-      <c r="C5" t="s">
-        <v>104</v>
-      </c>
-      <c r="D5" t="s"/>
-      <c r="E5" t="s"/>
-      <c r="F5" t="s">
-        <v>105</v>
-      </c>
-      <c r="G5" t="s">
-        <v>106</v>
-      </c>
-      <c r="H5" t="s">
-        <v>107</v>
-      </c>
-      <c r="I5" t="s">
-        <v>108</v>
-      </c>
-      <c r="J5" t="s">
-        <v>109</v>
-      </c>
-      <c r="K5" t="s"/>
-      <c r="L5" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6" t="s">
-        <v>111</v>
-      </c>
-      <c r="B6" t="s">
-        <v>112</v>
-      </c>
-      <c r="C6" t="s"/>
-      <c r="D6" t="s"/>
-      <c r="E6" t="s"/>
-      <c r="F6" t="s">
-        <v>113</v>
-      </c>
-      <c r="G6" t="s"/>
-      <c r="H6" t="s"/>
-      <c r="I6" t="s"/>
-      <c r="J6" t="s"/>
-      <c r="K6" t="s"/>
-      <c r="L6" t="s"/>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7" t="s">
-        <v>114</v>
-      </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
-      <c r="D7" t="s"/>
-      <c r="E7" t="s">
-        <v>115</v>
-      </c>
-      <c r="F7" t="s"/>
-      <c r="G7" t="s"/>
-      <c r="H7" t="s"/>
-      <c r="I7" t="s"/>
-      <c r="J7" t="s"/>
-      <c r="K7" t="s"/>
-      <c r="L7" t="s"/>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8" t="s">
-        <v>116</v>
-      </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
-      <c r="D8" t="s"/>
-      <c r="E8" t="s"/>
-      <c r="F8" t="s"/>
-      <c r="G8" t="s"/>
-      <c r="H8" t="s"/>
-      <c r="I8" t="s"/>
-      <c r="J8" t="s"/>
-      <c r="K8" t="s"/>
-      <c r="L8" t="s"/>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="B8" t="s">
+        <v>616</v>
+      </c>
+      <c r="C8" t="s">
+        <v>133</v>
+      </c>
+      <c r="D8" t="s">
+        <v>134</v>
+      </c>
+      <c r="E8" t="s">
+        <v>135</v>
+      </c>
+      <c r="F8" t="s">
+        <v>136</v>
+      </c>
+      <c r="G8" t="s">
+        <v>137</v>
+      </c>
+      <c r="H8" t="s">
+        <v>138</v>
+      </c>
+      <c r="I8" t="s">
+        <v>139</v>
+      </c>
+      <c r="J8" t="s">
+        <v>140</v>
+      </c>
+      <c r="K8" t="s">
+        <v>141</v>
+      </c>
+      <c r="L8" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>117</v>
-      </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
-      <c r="D9" t="s"/>
-      <c r="E9" t="s"/>
-      <c r="F9" t="s"/>
-      <c r="G9" t="s"/>
-      <c r="H9" t="s"/>
-      <c r="I9" t="s"/>
-      <c r="J9" t="s"/>
-      <c r="K9" t="s"/>
-      <c r="L9" t="s"/>
+        <v>143</v>
+      </c>
+      <c r="B9" t="s">
+        <v>144</v>
+      </c>
+      <c r="C9" t="s">
+        <v>145</v>
+      </c>
+      <c r="F9" t="s">
+        <v>146</v>
+      </c>
+      <c r="G9" t="s">
+        <v>147</v>
+      </c>
+      <c r="H9" t="s">
+        <v>148</v>
+      </c>
+      <c r="I9" t="s">
+        <v>149</v>
+      </c>
+      <c r="J9" t="s">
+        <v>150</v>
+      </c>
+      <c r="L9" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>152</v>
+      </c>
+      <c r="B10" t="s">
+        <v>153</v>
+      </c>
+      <c r="F10" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>155</v>
+      </c>
+      <c r="E11" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>158</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="8"/>
+    <col min="1" max="1" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
-      <c r="A5" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>117</v>
+        <v>143</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>158</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="8"/>
-    <col customWidth="1" max="2" min="2" width="78"/>
-    <col customWidth="1" max="3" min="3" width="88"/>
-    <col customWidth="1" max="4" min="4" width="241"/>
-    <col customWidth="1" max="5" min="5" width="103"/>
+    <col min="1" max="1" width="17" customWidth="1"/>
+    <col min="2" max="2" width="81" customWidth="1"/>
+    <col min="3" max="3" width="88" customWidth="1"/>
+    <col min="4" max="4" width="241" customWidth="1"/>
+    <col min="5" max="5" width="103" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="B1" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="C1" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="D1" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="E1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="B2" t="s">
-        <v>119</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>120</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B3">
+        <v>101179</v>
+      </c>
+      <c r="C3" t="s">
+        <v>160</v>
+      </c>
+      <c r="D3" t="s">
+        <v>160</v>
+      </c>
+      <c r="E3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C4" t="s">
+        <v>162</v>
+      </c>
+      <c r="D4" t="s">
+        <v>163</v>
+      </c>
+      <c r="E4" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B5" t="s">
+        <v>165</v>
+      </c>
+      <c r="C5" t="s">
+        <v>166</v>
+      </c>
+      <c r="D5" t="s">
+        <v>167</v>
+      </c>
+      <c r="E5" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>109</v>
+      </c>
+      <c r="B6" t="s">
+        <v>169</v>
+      </c>
+      <c r="C6" t="s">
+        <v>170</v>
+      </c>
+      <c r="D6" t="s">
+        <v>171</v>
+      </c>
+      <c r="E6" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>121</v>
       </c>
-      <c r="E2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B3" t="s">
-        <v>123</v>
-      </c>
-      <c r="C3" t="s">
-        <v>124</v>
-      </c>
-      <c r="D3" t="s">
-        <v>125</v>
-      </c>
-      <c r="E3" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
+      <c r="B7" t="s">
+        <v>173</v>
+      </c>
+      <c r="C7" t="s">
+        <v>174</v>
+      </c>
+      <c r="D7" t="s">
+        <v>175</v>
+      </c>
+      <c r="E7" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>25</v>
       </c>
-      <c r="B4" t="s">
-        <v>127</v>
-      </c>
-      <c r="C4" t="s">
-        <v>128</v>
-      </c>
-      <c r="D4" t="s">
-        <v>129</v>
-      </c>
-      <c r="E4" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>102</v>
-      </c>
-      <c r="B5" t="s">
-        <v>131</v>
-      </c>
-      <c r="C5" t="s"/>
-      <c r="D5" t="s">
-        <v>132</v>
-      </c>
-      <c r="E5" t="s"/>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
-        <v>111</v>
-      </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
-      <c r="D6" t="s"/>
-      <c r="E6" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" t="s">
-        <v>114</v>
-      </c>
-      <c r="B7" t="s">
-        <v>134</v>
-      </c>
-      <c r="C7" t="s"/>
-      <c r="D7" t="s">
-        <v>135</v>
-      </c>
-      <c r="E7" t="s"/>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" t="s">
-        <v>116</v>
-      </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
-      <c r="D8" t="s"/>
+      <c r="B8" t="s">
+        <v>177</v>
+      </c>
+      <c r="C8" t="s">
+        <v>178</v>
+      </c>
+      <c r="D8" t="s">
+        <v>179</v>
+      </c>
       <c r="E8" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>143</v>
+      </c>
+      <c r="B9" t="s">
+        <v>181</v>
+      </c>
+      <c r="D9" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>152</v>
+      </c>
+      <c r="E10" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>155</v>
+      </c>
+      <c r="B11" t="s">
+        <v>184</v>
+      </c>
+      <c r="D11" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>157</v>
+      </c>
+      <c r="E12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
-      <c r="A9" t="s">
-        <v>117</v>
-      </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
-      <c r="D9" t="s"/>
-      <c r="E9" t="s"/>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>158</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="8"/>
-    <col customWidth="1" max="2" min="2" width="1499"/>
-    <col customWidth="1" max="3" min="3" width="337"/>
-    <col customWidth="1" max="4" min="4" width="88"/>
-    <col customWidth="1" max="5" min="5" width="615"/>
+    <col min="1" max="1" width="17" customWidth="1"/>
+    <col min="2" max="2" width="1499" customWidth="1"/>
+    <col min="3" max="3" width="337" customWidth="1"/>
+    <col min="4" max="4" width="88" customWidth="1"/>
+    <col min="5" max="5" width="615" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="B1" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="C1" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="D1" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="E1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="B2" t="s">
-        <v>136</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>137</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>138</v>
+        <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>44</v>
+        <v>83</v>
       </c>
       <c r="B3" t="s">
-        <v>140</v>
+        <v>186</v>
       </c>
       <c r="C3" t="s">
-        <v>141</v>
+        <v>186</v>
       </c>
       <c r="D3" t="s">
-        <v>142</v>
+        <v>186</v>
       </c>
       <c r="E3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B4" t="s">
+        <v>187</v>
+      </c>
+      <c r="C4" t="s">
+        <v>188</v>
+      </c>
+      <c r="D4" t="s">
+        <v>189</v>
+      </c>
+      <c r="E4" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B5" t="s">
+        <v>191</v>
+      </c>
+      <c r="C5" t="s">
+        <v>192</v>
+      </c>
+      <c r="D5" t="s">
+        <v>193</v>
+      </c>
+      <c r="E5" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>109</v>
+      </c>
+      <c r="B6" t="s">
+        <v>195</v>
+      </c>
+      <c r="C6" t="s">
+        <v>196</v>
+      </c>
+      <c r="D6" t="s">
+        <v>197</v>
+      </c>
+      <c r="E6" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>121</v>
+      </c>
+      <c r="B7" t="s">
+        <v>199</v>
+      </c>
+      <c r="C7" t="s">
+        <v>200</v>
+      </c>
+      <c r="D7" t="s">
+        <v>201</v>
+      </c>
+      <c r="E7" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" t="s">
+        <v>203</v>
+      </c>
+      <c r="C8" t="s">
+        <v>204</v>
+      </c>
+      <c r="D8" t="s">
+        <v>205</v>
+      </c>
+      <c r="E8" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" t="s">
-        <v>144</v>
-      </c>
-      <c r="C4" t="s">
-        <v>145</v>
-      </c>
-      <c r="D4" t="s">
-        <v>146</v>
-      </c>
-      <c r="E4" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>102</v>
-      </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s">
-        <v>148</v>
-      </c>
-      <c r="D5" t="s"/>
-      <c r="E5" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
-        <v>111</v>
-      </c>
-      <c r="B6" t="s">
-        <v>150</v>
-      </c>
-      <c r="C6" t="s">
-        <v>151</v>
-      </c>
-      <c r="D6" t="s"/>
-      <c r="E6" t="s"/>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" t="s">
-        <v>114</v>
-      </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
-      <c r="D7" t="s"/>
-      <c r="E7" t="s"/>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" t="s">
-        <v>116</v>
-      </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
-      <c r="D8" t="s"/>
-      <c r="E8" t="s"/>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" t="s">
-        <v>117</v>
-      </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
-      <c r="D9" t="s"/>
-      <c r="E9" t="s"/>
+      <c r="C9" t="s">
+        <v>207</v>
+      </c>
+      <c r="E9" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>152</v>
+      </c>
+      <c r="B10" t="s">
+        <v>209</v>
+      </c>
+      <c r="C10" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>158</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:G9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="8"/>
-    <col customWidth="1" max="2" min="2" width="1406"/>
-    <col customWidth="1" max="3" min="3" width="710"/>
-    <col customWidth="1" max="4" min="4" width="88"/>
-    <col customWidth="1" max="5" min="5" width="88"/>
-    <col customWidth="1" max="6" min="6" width="88"/>
-    <col customWidth="1" max="7" min="7" width="103"/>
+    <col min="1" max="1" width="17" customWidth="1"/>
+    <col min="2" max="2" width="1406" customWidth="1"/>
+    <col min="3" max="3" width="710" customWidth="1"/>
+    <col min="4" max="6" width="88" customWidth="1"/>
+    <col min="7" max="7" width="103" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="B1" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="C1" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="D1" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="E1" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="F1" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="G1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B3" t="s">
+        <v>211</v>
+      </c>
+      <c r="C3" t="s">
+        <v>211</v>
+      </c>
+      <c r="D3" t="s">
+        <v>211</v>
+      </c>
+      <c r="E3" t="s">
+        <v>211</v>
+      </c>
+      <c r="F3" t="s">
+        <v>211</v>
+      </c>
+      <c r="G3" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B4" t="s">
+        <v>212</v>
+      </c>
+      <c r="C4" t="s">
+        <v>213</v>
+      </c>
+      <c r="D4" t="s">
+        <v>214</v>
+      </c>
+      <c r="E4" t="s">
+        <v>215</v>
+      </c>
+      <c r="F4" t="s">
+        <v>216</v>
+      </c>
+      <c r="G4" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B5" t="s">
+        <v>218</v>
+      </c>
+      <c r="C5" t="s">
+        <v>219</v>
+      </c>
+      <c r="D5" t="s">
+        <v>220</v>
+      </c>
+      <c r="E5" t="s">
+        <v>221</v>
+      </c>
+      <c r="F5" t="s">
+        <v>222</v>
+      </c>
+      <c r="G5" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>109</v>
+      </c>
+      <c r="B6" t="s">
+        <v>224</v>
+      </c>
+      <c r="C6" t="s">
+        <v>225</v>
+      </c>
+      <c r="D6" t="s">
+        <v>226</v>
+      </c>
+      <c r="E6" t="s">
+        <v>227</v>
+      </c>
+      <c r="F6" t="s">
+        <v>228</v>
+      </c>
+      <c r="G6" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>121</v>
+      </c>
+      <c r="B7" t="s">
+        <v>230</v>
+      </c>
+      <c r="C7" t="s">
+        <v>231</v>
+      </c>
+      <c r="D7" t="s">
+        <v>232</v>
+      </c>
+      <c r="E7" t="s">
+        <v>233</v>
+      </c>
+      <c r="F7" t="s">
+        <v>234</v>
+      </c>
+      <c r="G7" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" t="s">
+        <v>203</v>
+      </c>
+      <c r="C8" t="s">
+        <v>236</v>
+      </c>
+      <c r="D8" t="s">
+        <v>237</v>
+      </c>
+      <c r="E8" t="s">
+        <v>238</v>
+      </c>
+      <c r="F8" t="s">
+        <v>239</v>
+      </c>
+      <c r="G8" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>143</v>
+      </c>
+      <c r="B9" t="s">
+        <v>240</v>
+      </c>
+      <c r="C9" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>152</v>
       </c>
-      <c r="C2" t="s">
-        <v>153</v>
-      </c>
-      <c r="D2" t="s">
-        <v>154</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="B10" t="s">
+        <v>241</v>
+      </c>
+      <c r="C10" t="s">
+        <v>242</v>
+      </c>
+      <c r="G10" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>155</v>
       </c>
-      <c r="F2" t="s">
-        <v>156</v>
-      </c>
-      <c r="G2" t="s">
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="G12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>158</v>
       </c>
-      <c r="C3" t="s">
-        <v>159</v>
-      </c>
-      <c r="D3" t="s">
-        <v>160</v>
-      </c>
-      <c r="E3" t="s">
-        <v>161</v>
-      </c>
-      <c r="F3" t="s">
-        <v>162</v>
-      </c>
-      <c r="G3" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" t="s">
-        <v>144</v>
-      </c>
-      <c r="C4" t="s">
-        <v>164</v>
-      </c>
-      <c r="D4" t="s">
-        <v>165</v>
-      </c>
-      <c r="E4" t="s">
-        <v>166</v>
-      </c>
-      <c r="F4" t="s">
-        <v>167</v>
-      </c>
-      <c r="G4" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" t="s">
-        <v>102</v>
-      </c>
-      <c r="B5" t="s">
-        <v>168</v>
-      </c>
-      <c r="C5" t="s">
-        <v>148</v>
-      </c>
-      <c r="D5" t="s"/>
-      <c r="E5" t="s"/>
-      <c r="F5" t="s"/>
-      <c r="G5" t="s"/>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" t="s">
-        <v>111</v>
-      </c>
-      <c r="B6" t="s">
-        <v>169</v>
-      </c>
-      <c r="C6" t="s">
-        <v>170</v>
-      </c>
-      <c r="D6" t="s"/>
-      <c r="E6" t="s"/>
-      <c r="F6" t="s"/>
-      <c r="G6" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" t="s">
-        <v>114</v>
-      </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
-      <c r="D7" t="s"/>
-      <c r="E7" t="s"/>
-      <c r="F7" t="s"/>
-      <c r="G7" t="s"/>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" t="s">
-        <v>116</v>
-      </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
-      <c r="D8" t="s"/>
-      <c r="E8" t="s"/>
-      <c r="F8" t="s"/>
-      <c r="G8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" t="s">
-        <v>117</v>
-      </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
-      <c r="D9" t="s"/>
-      <c r="E9" t="s"/>
-      <c r="F9" t="s"/>
-      <c r="G9" t="s"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:G9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="8"/>
-    <col customWidth="1" max="2" min="2" width="88"/>
-    <col customWidth="1" max="3" min="3" width="78"/>
-    <col customWidth="1" max="4" min="4" width="78"/>
-    <col customWidth="1" max="5" min="5" width="631"/>
-    <col customWidth="1" max="6" min="6" width="651"/>
-    <col customWidth="1" max="7" min="7" width="103"/>
+    <col min="1" max="1" width="17" customWidth="1"/>
+    <col min="2" max="2" width="88" customWidth="1"/>
+    <col min="3" max="4" width="81" customWidth="1"/>
+    <col min="5" max="5" width="631" customWidth="1"/>
+    <col min="6" max="6" width="651" customWidth="1"/>
+    <col min="7" max="7" width="103" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="B1" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="C1" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="D1" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="E1" t="s">
-        <v>171</v>
+        <v>243</v>
       </c>
       <c r="F1" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="G1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="B2" t="s">
-        <v>172</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>173</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>174</v>
+        <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>175</v>
+        <v>14</v>
       </c>
       <c r="F2" t="s">
-        <v>176</v>
+        <v>14</v>
       </c>
       <c r="G2" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>44</v>
+        <v>83</v>
       </c>
       <c r="B3" t="s">
-        <v>178</v>
+        <v>244</v>
       </c>
       <c r="C3" t="s">
-        <v>179</v>
+        <v>244</v>
       </c>
       <c r="D3" t="s">
+        <v>244</v>
+      </c>
+      <c r="E3" t="s">
+        <v>244</v>
+      </c>
+      <c r="F3" t="s">
+        <v>244</v>
+      </c>
+      <c r="G3" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B4" t="s">
+        <v>245</v>
+      </c>
+      <c r="C4" t="s">
+        <v>246</v>
+      </c>
+      <c r="D4" t="s">
+        <v>247</v>
+      </c>
+      <c r="E4" t="s">
+        <v>248</v>
+      </c>
+      <c r="F4" t="s">
+        <v>249</v>
+      </c>
+      <c r="G4" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B5" t="s">
+        <v>251</v>
+      </c>
+      <c r="C5" t="s">
+        <v>252</v>
+      </c>
+      <c r="D5" t="s">
+        <v>253</v>
+      </c>
+      <c r="E5" t="s">
+        <v>254</v>
+      </c>
+      <c r="F5" t="s">
+        <v>255</v>
+      </c>
+      <c r="G5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>109</v>
+      </c>
+      <c r="B6" t="s">
+        <v>257</v>
+      </c>
+      <c r="C6" t="s">
+        <v>258</v>
+      </c>
+      <c r="D6" t="s">
+        <v>259</v>
+      </c>
+      <c r="E6" t="s">
+        <v>260</v>
+      </c>
+      <c r="F6" t="s">
+        <v>261</v>
+      </c>
+      <c r="G6" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>121</v>
+      </c>
+      <c r="B7" t="s">
+        <v>263</v>
+      </c>
+      <c r="C7" t="s">
+        <v>264</v>
+      </c>
+      <c r="D7" t="s">
+        <v>265</v>
+      </c>
+      <c r="E7" t="s">
+        <v>266</v>
+      </c>
+      <c r="F7" t="s">
+        <v>267</v>
+      </c>
+      <c r="G7" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" t="s">
+        <v>269</v>
+      </c>
+      <c r="C8" t="s">
+        <v>270</v>
+      </c>
+      <c r="D8" t="s">
+        <v>271</v>
+      </c>
+      <c r="E8" t="s">
+        <v>272</v>
+      </c>
+      <c r="F8" t="s">
+        <v>273</v>
+      </c>
+      <c r="G8" t="s">
         <v>180</v>
       </c>
-      <c r="E3" t="s">
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>143</v>
+      </c>
+      <c r="C9" t="s">
+        <v>274</v>
+      </c>
+      <c r="D9" t="s">
         <v>181</v>
       </c>
-      <c r="F3" t="s">
-        <v>182</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="E9" t="s">
+        <v>275</v>
+      </c>
+      <c r="F9" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>152</v>
+      </c>
+      <c r="F10" t="s">
+        <v>276</v>
+      </c>
+      <c r="G10" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
-      <c r="A4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" t="s">
-        <v>184</v>
-      </c>
-      <c r="C4" t="s">
-        <v>185</v>
-      </c>
-      <c r="D4" t="s">
-        <v>186</v>
-      </c>
-      <c r="E4" t="s">
-        <v>187</v>
-      </c>
-      <c r="F4" t="s">
-        <v>188</v>
-      </c>
-      <c r="G4" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" t="s">
-        <v>102</v>
-      </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s">
-        <v>189</v>
-      </c>
-      <c r="D5" t="s">
-        <v>131</v>
-      </c>
-      <c r="E5" t="s">
-        <v>190</v>
-      </c>
-      <c r="F5" t="s">
-        <v>148</v>
-      </c>
-      <c r="G5" t="s"/>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" t="s">
-        <v>111</v>
-      </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
-      <c r="D6" t="s"/>
-      <c r="E6" t="s"/>
-      <c r="F6" t="s">
-        <v>191</v>
-      </c>
-      <c r="G6" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" t="s">
-        <v>114</v>
-      </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s">
-        <v>192</v>
-      </c>
-      <c r="D7" t="s">
-        <v>193</v>
-      </c>
-      <c r="E7" t="s"/>
-      <c r="F7" t="s"/>
-      <c r="G7" t="s"/>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" t="s">
-        <v>116</v>
-      </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
-      <c r="D8" t="s"/>
-      <c r="E8" t="s">
-        <v>194</v>
-      </c>
-      <c r="F8" t="s"/>
-      <c r="G8" t="s">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>155</v>
+      </c>
+      <c r="C11" t="s">
+        <v>277</v>
+      </c>
+      <c r="D11" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>157</v>
+      </c>
+      <c r="E12" t="s">
+        <v>279</v>
+      </c>
+      <c r="G12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
-      <c r="A9" t="s">
-        <v>117</v>
-      </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
-      <c r="D9" t="s"/>
-      <c r="E9" t="s">
-        <v>195</v>
-      </c>
-      <c r="F9" t="s"/>
-      <c r="G9" t="s"/>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>158</v>
+      </c>
+      <c r="E13" t="s">
+        <v>280</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="8"/>
-    <col customWidth="1" max="2" min="2" width="88"/>
-    <col customWidth="1" max="3" min="3" width="78"/>
-    <col customWidth="1" max="4" min="4" width="614"/>
-    <col customWidth="1" max="5" min="5" width="588"/>
-    <col customWidth="1" max="6" min="6" width="124"/>
-    <col customWidth="1" max="7" min="7" width="88"/>
-    <col customWidth="1" max="8" min="8" width="88"/>
-    <col customWidth="1" max="9" min="9" width="103"/>
+    <col min="1" max="1" width="17" customWidth="1"/>
+    <col min="2" max="2" width="88" customWidth="1"/>
+    <col min="3" max="3" width="81" customWidth="1"/>
+    <col min="4" max="4" width="614" customWidth="1"/>
+    <col min="5" max="5" width="588" customWidth="1"/>
+    <col min="6" max="6" width="124" customWidth="1"/>
+    <col min="7" max="8" width="88" customWidth="1"/>
+    <col min="9" max="9" width="103" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="B1" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="C1" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="D1" t="s">
-        <v>171</v>
+        <v>243</v>
       </c>
       <c r="E1" t="s">
-        <v>171</v>
+        <v>243</v>
       </c>
       <c r="F1" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="G1" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="H1" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="I1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="B2" t="s">
-        <v>196</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>197</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>198</v>
+        <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>199</v>
+        <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>200</v>
+        <v>15</v>
       </c>
       <c r="G2" t="s">
-        <v>201</v>
+        <v>15</v>
       </c>
       <c r="H2" t="s">
-        <v>202</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>44</v>
+        <v>83</v>
       </c>
       <c r="B3" t="s">
-        <v>204</v>
+        <v>281</v>
       </c>
       <c r="C3" t="s">
-        <v>205</v>
+        <v>281</v>
       </c>
       <c r="D3" t="s">
-        <v>206</v>
+        <v>281</v>
       </c>
       <c r="E3" t="s">
-        <v>207</v>
+        <v>281</v>
       </c>
       <c r="F3" t="s">
-        <v>208</v>
+        <v>281</v>
       </c>
       <c r="G3" t="s">
-        <v>209</v>
+        <v>281</v>
       </c>
       <c r="H3" t="s">
-        <v>210</v>
+        <v>281</v>
       </c>
       <c r="I3" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B4" t="s">
+        <v>282</v>
+      </c>
+      <c r="C4" t="s">
+        <v>283</v>
+      </c>
+      <c r="D4" t="s">
+        <v>284</v>
+      </c>
+      <c r="E4" t="s">
+        <v>285</v>
+      </c>
+      <c r="F4" t="s">
+        <v>286</v>
+      </c>
+      <c r="G4" t="s">
+        <v>287</v>
+      </c>
+      <c r="H4" t="s">
+        <v>288</v>
+      </c>
+      <c r="I4" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B5" t="s">
+        <v>290</v>
+      </c>
+      <c r="C5" t="s">
+        <v>291</v>
+      </c>
+      <c r="D5" t="s">
+        <v>292</v>
+      </c>
+      <c r="E5" t="s">
+        <v>293</v>
+      </c>
+      <c r="F5" t="s">
+        <v>294</v>
+      </c>
+      <c r="G5" t="s">
+        <v>295</v>
+      </c>
+      <c r="H5" t="s">
+        <v>296</v>
+      </c>
+      <c r="I5" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>109</v>
+      </c>
+      <c r="B6" t="s">
+        <v>298</v>
+      </c>
+      <c r="C6" t="s">
+        <v>299</v>
+      </c>
+      <c r="D6" t="s">
+        <v>300</v>
+      </c>
+      <c r="E6" t="s">
+        <v>301</v>
+      </c>
+      <c r="F6" t="s">
+        <v>302</v>
+      </c>
+      <c r="G6" t="s">
+        <v>303</v>
+      </c>
+      <c r="H6" t="s">
+        <v>304</v>
+      </c>
+      <c r="I6" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>121</v>
+      </c>
+      <c r="B7" t="s">
+        <v>306</v>
+      </c>
+      <c r="C7" t="s">
+        <v>307</v>
+      </c>
+      <c r="D7" t="s">
+        <v>308</v>
+      </c>
+      <c r="E7" t="s">
+        <v>309</v>
+      </c>
+      <c r="F7" t="s">
+        <v>310</v>
+      </c>
+      <c r="G7" t="s">
+        <v>311</v>
+      </c>
+      <c r="H7" t="s">
+        <v>312</v>
+      </c>
+      <c r="I7" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>25</v>
       </c>
-      <c r="B4" t="s">
-        <v>212</v>
-      </c>
-      <c r="C4" t="s">
-        <v>127</v>
-      </c>
-      <c r="D4" t="s">
-        <v>213</v>
-      </c>
-      <c r="E4" t="s">
-        <v>214</v>
-      </c>
-      <c r="F4" t="s">
-        <v>215</v>
-      </c>
-      <c r="G4" t="s">
-        <v>216</v>
-      </c>
-      <c r="H4" t="s">
-        <v>217</v>
-      </c>
-      <c r="I4" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" t="s">
-        <v>102</v>
-      </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s">
-        <v>131</v>
-      </c>
-      <c r="D5" t="s">
-        <v>218</v>
-      </c>
-      <c r="E5" t="s">
-        <v>219</v>
-      </c>
-      <c r="F5" t="s"/>
-      <c r="G5" t="s"/>
-      <c r="H5" t="s"/>
-      <c r="I5" t="s"/>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" t="s">
-        <v>111</v>
-      </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
-      <c r="D6" t="s"/>
-      <c r="E6" t="s"/>
-      <c r="F6" t="s">
-        <v>220</v>
-      </c>
-      <c r="G6" t="s"/>
-      <c r="H6" t="s"/>
-      <c r="I6" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" t="s">
-        <v>114</v>
-      </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s">
-        <v>221</v>
-      </c>
-      <c r="D7" t="s"/>
-      <c r="E7" t="s"/>
-      <c r="F7" t="s"/>
-      <c r="G7" t="s"/>
-      <c r="H7" t="s"/>
-      <c r="I7" t="s"/>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" t="s">
-        <v>116</v>
-      </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="s">
+        <v>314</v>
+      </c>
+      <c r="C8" t="s">
+        <v>177</v>
+      </c>
       <c r="D8" t="s">
-        <v>194</v>
+        <v>315</v>
       </c>
       <c r="E8" t="s">
-        <v>194</v>
-      </c>
-      <c r="F8" t="s"/>
-      <c r="G8" t="s"/>
-      <c r="H8" t="s"/>
+        <v>316</v>
+      </c>
+      <c r="F8" t="s">
+        <v>317</v>
+      </c>
+      <c r="G8" t="s">
+        <v>318</v>
+      </c>
+      <c r="H8" t="s">
+        <v>319</v>
+      </c>
       <c r="I8" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>143</v>
+      </c>
+      <c r="C9" t="s">
+        <v>181</v>
+      </c>
+      <c r="D9" t="s">
+        <v>320</v>
+      </c>
+      <c r="E9" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>152</v>
+      </c>
+      <c r="F10" t="s">
+        <v>322</v>
+      </c>
+      <c r="I10" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>155</v>
+      </c>
+      <c r="C11" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>157</v>
+      </c>
+      <c r="D12" t="s">
+        <v>279</v>
+      </c>
+      <c r="E12" t="s">
+        <v>279</v>
+      </c>
+      <c r="I12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
-      <c r="A9" t="s">
-        <v>117</v>
-      </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
-      <c r="D9" t="s">
-        <v>222</v>
-      </c>
-      <c r="E9" t="s">
-        <v>222</v>
-      </c>
-      <c r="F9" t="s"/>
-      <c r="G9" t="s"/>
-      <c r="H9" t="s"/>
-      <c r="I9" t="s"/>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>158</v>
+      </c>
+      <c r="D13" t="s">
+        <v>324</v>
+      </c>
+      <c r="E13" t="s">
+        <v>324</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>